--- a/05 Avengers.xlsx
+++ b/05 Avengers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salvatore\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADD1B18-CCA6-4399-891C-DE6330ECA627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49996545-A2D6-4C34-8A22-CE1AE3E24774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="930" windowWidth="36340" windowHeight="18960" tabRatio="604" activeTab="5" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="990" yWindow="1100" windowWidth="36340" windowHeight="18960" tabRatio="604" activeTab="2" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="320">
   <si>
     <t>Da</t>
   </si>
@@ -902,9 +902,6 @@
   </si>
   <si>
     <t>Capitan America e i Vendicatori da #7 a #9</t>
-  </si>
-  <si>
-    <t>Star Magazine Oro #3</t>
   </si>
   <si>
     <t>Marvel Omnibus #76</t>
@@ -2416,7 +2413,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
@@ -2491,22 +2488,22 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E18" s="5"/>
     </row>
@@ -2809,7 +2806,7 @@
         <v>333</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="2" customFormat="1" ht="21">
@@ -2996,7 +2993,7 @@
         <v>393</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="2:4" s="11" customFormat="1" ht="21">
@@ -3075,10 +3072,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1380A8E3-F86A-4EFD-9942-EA99F1B349C6}">
-  <dimension ref="A4:E61"/>
+  <dimension ref="A4:E59"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3217,95 +3214,95 @@
         <v>253</v>
       </c>
       <c r="C22" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="21">
-      <c r="B23" s="2">
-        <v>256</v>
-      </c>
-      <c r="C23" s="2">
-        <v>256</v>
-      </c>
-      <c r="D23" s="2" t="s">
+    <row r="23" spans="1:5" s="19" customFormat="1" ht="21">
+      <c r="B23" s="11">
+        <v>258</v>
+      </c>
+      <c r="C23" s="11">
+        <v>260</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="19" customFormat="1" ht="21">
-      <c r="B24" s="11">
-        <v>257</v>
-      </c>
-      <c r="C24" s="11">
-        <v>257</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="19" customFormat="1" ht="21">
-      <c r="B25" s="11">
-        <v>258</v>
-      </c>
-      <c r="C25" s="11">
-        <v>260</v>
-      </c>
-      <c r="D25" s="11" t="s">
+    <row r="24" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="B24" s="2">
+        <v>261</v>
+      </c>
+      <c r="C24" s="2">
+        <v>264</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21">
+      <c r="B25" s="2">
+        <v>265</v>
+      </c>
+      <c r="C25" s="2">
+        <v>266</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B26" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="21">
+    <row r="27" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B27" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B28" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C28" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="B29" s="2">
-        <v>268</v>
-      </c>
-      <c r="C29" s="2">
-        <v>268</v>
-      </c>
-      <c r="D29" s="2" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="19" customFormat="1" ht="21">
+      <c r="B29" s="11">
+        <v>271</v>
+      </c>
+      <c r="C29" s="11">
+        <v>271</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B30" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>173</v>
@@ -3313,352 +3310,330 @@
     </row>
     <row r="31" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="B31" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C31" s="11">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B32" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C32" s="2">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="2:4" s="19" customFormat="1" ht="21">
       <c r="B33" s="11">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C33" s="11">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B34" s="2">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" s="19" customFormat="1" ht="21">
-      <c r="B35" s="11">
-        <v>291</v>
-      </c>
-      <c r="C35" s="11">
-        <v>291</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>168</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" s="22" customFormat="1" ht="21">
+      <c r="B35" s="13">
+        <v>332</v>
+      </c>
+      <c r="C35" s="13">
+        <v>336</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B36" s="2">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="C36" s="2">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" s="22" customFormat="1" ht="21">
-      <c r="B37" s="13">
-        <v>332</v>
-      </c>
-      <c r="C37" s="13">
-        <v>336</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>208</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B37" s="2">
+        <v>351</v>
+      </c>
+      <c r="C37" s="2">
+        <v>351</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B38" s="2">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="C38" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B39" s="2">
-        <v>351</v>
-      </c>
-      <c r="C39" s="2">
-        <v>351</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="39" spans="2:4" s="19" customFormat="1" ht="21">
+      <c r="B39" s="11">
+        <v>355</v>
+      </c>
+      <c r="C39" s="11">
+        <v>357</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" s="10" customFormat="1" ht="21">
       <c r="B40" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C40" s="2">
-        <v>354</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" s="19" customFormat="1" ht="21">
-      <c r="B41" s="11">
-        <v>355</v>
-      </c>
-      <c r="C41" s="11">
-        <v>357</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" s="10" customFormat="1" ht="21">
+        <v>364</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B41" s="2">
+        <v>365</v>
+      </c>
+      <c r="C41" s="2">
+        <v>365</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B42" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C42" s="2">
-        <v>364</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>308</v>
+        <v>367</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B43" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C43" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B44" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C44" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B45" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C45" s="2">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B46" s="2">
-        <v>369</v>
-      </c>
-      <c r="C46" s="2">
-        <v>371</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" s="19" customFormat="1" ht="21">
+      <c r="B46" s="11">
+        <v>379</v>
+      </c>
+      <c r="C46" s="11">
+        <v>379</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B47" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" s="19" customFormat="1" ht="21">
-      <c r="B48" s="11">
-        <v>379</v>
-      </c>
-      <c r="C48" s="11">
-        <v>379</v>
-      </c>
-      <c r="D48" s="11" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B48" s="2">
+        <v>382</v>
+      </c>
+      <c r="C48" s="2">
+        <v>382</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="2:5" s="2" customFormat="1" ht="21">
       <c r="B49" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C49" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="2:5" s="2" customFormat="1" ht="21">
       <c r="B50" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C50" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" s="2" customFormat="1" ht="21">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="21">
       <c r="B51" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C51" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" s="2" customFormat="1" ht="21">
+        <v>254</v>
+      </c>
+      <c r="E51" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="21">
       <c r="B52" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C52" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="21">
       <c r="B53" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C53" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E53" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="21">
       <c r="B54" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C54" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="21">
       <c r="B55" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C55" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="21">
       <c r="B56" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C56" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
+      </c>
+      <c r="E56" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="21">
       <c r="B57" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C57" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
+      </c>
+      <c r="E57" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="21">
       <c r="B58" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C58" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E58" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="21">
       <c r="B59" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C59" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E59" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="21">
-      <c r="B60" s="2">
-        <v>401</v>
-      </c>
-      <c r="C60" s="2">
-        <v>401</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" ht="21">
-      <c r="B61" s="2">
-        <v>402</v>
-      </c>
-      <c r="C61" s="2">
-        <v>408</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3801,7 +3776,7 @@
         <v>142</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>126</v>
@@ -3815,7 +3790,7 @@
         <v>143</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E22" s="11"/>
     </row>
@@ -3827,7 +3802,7 @@
         <v>153</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E23" s="11"/>
     </row>
@@ -3851,7 +3826,7 @@
         <v>169</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E25" s="11"/>
     </row>
@@ -3863,7 +3838,7 @@
         <v>170</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E26" s="11"/>
     </row>
@@ -3875,7 +3850,7 @@
         <v>182</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E27" s="11"/>
     </row>
@@ -3899,7 +3874,7 @@
         <v>200</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E29" s="11"/>
     </row>
@@ -3923,7 +3898,7 @@
         <v>244</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -3935,7 +3910,7 @@
         <v>250</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E32" s="11"/>
     </row>
@@ -3947,7 +3922,7 @@
         <v>252</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E33" s="11"/>
     </row>
@@ -3959,7 +3934,7 @@
         <v>253</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E34" s="13"/>
     </row>
@@ -3971,7 +3946,7 @@
         <v>254</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E35" s="11"/>
     </row>
@@ -3995,7 +3970,7 @@
         <v>256</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E37" s="11"/>
     </row>
@@ -4019,7 +3994,7 @@
         <v>266</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E39" s="11"/>
     </row>
@@ -4031,7 +4006,7 @@
         <v>277</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E40" s="11"/>
     </row>
@@ -4043,10 +4018,10 @@
         <v>279</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="2:5" s="18" customFormat="1" ht="21">
@@ -4057,7 +4032,7 @@
         <v>284</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>58</v>
@@ -4071,7 +4046,7 @@
         <v>292</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>58</v>
@@ -4085,7 +4060,7 @@
         <v>297</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>58</v>
@@ -4099,7 +4074,7 @@
         <v>300</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E45" s="2"/>
     </row>
@@ -4111,7 +4086,7 @@
         <v>306</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E46" s="2"/>
     </row>
@@ -4123,7 +4098,7 @@
         <v>307</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E47" s="2"/>
     </row>
@@ -4135,7 +4110,7 @@
         <v>323</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E49" s="2"/>
     </row>
@@ -4307,7 +4282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A6D52D-A687-4920-A07E-BAE3D4935072}">
   <dimension ref="A4:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
@@ -4320,10 +4295,10 @@
   <sheetData>
     <row r="4" spans="1:4" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4336,26 +4311,26 @@
     </row>
     <row r="7" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A7" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A8" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A9" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="17" customFormat="1" ht="16">
@@ -4376,10 +4351,10 @@
     </row>
     <row r="12" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A12" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="17" customFormat="1" ht="16">
@@ -4387,17 +4362,17 @@
         <v>111</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4416,7 +4391,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4427,7 +4402,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4438,7 +4413,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="11" customFormat="1" ht="21">
@@ -4460,7 +4435,7 @@
         <v>45</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4471,7 +4446,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4482,7 +4457,7 @@
         <v>52</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4504,7 +4479,7 @@
         <v>55</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4515,7 +4490,7 @@
         <v>58</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="2:4" s="11" customFormat="1" ht="21">
@@ -4526,7 +4501,7 @@
         <v>59</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4537,7 +4512,7 @@
         <v>63</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="2:4" s="11" customFormat="1" ht="21">
@@ -4559,7 +4534,7 @@
         <v>69</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4570,7 +4545,7 @@
         <v>74</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4581,7 +4556,7 @@
         <v>79</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4592,10 +4567,10 @@
         <v>82</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="11" customFormat="1" ht="21">
@@ -4617,7 +4592,7 @@
         <v>88</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4628,7 +4603,7 @@
         <v>93</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4639,7 +4614,7 @@
         <v>95</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="11" customFormat="1" ht="21">
@@ -4661,7 +4636,7 @@
         <v>99</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4672,7 +4647,7 @@
         <v>100</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4694,18 +4669,18 @@
         <v>102</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="21.5">
       <c r="A48" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4715,17 +4690,17 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4740,7 +4715,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4764,7 +4739,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="2" customFormat="1" ht="21">
@@ -4775,7 +4750,7 @@
         <v>4</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="2" customFormat="1" ht="21">
@@ -4797,7 +4772,7 @@
         <v>7</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4819,7 +4794,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="67" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4841,7 +4816,7 @@
         <v>11</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4863,7 +4838,7 @@
         <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -5316,7 +5291,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B35" s="9">
         <v>31321</v>
@@ -5325,12 +5300,12 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B36" s="9">
         <v>31352</v>
@@ -5339,12 +5314,12 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B37" s="9">
         <v>32721</v>
@@ -5358,7 +5333,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B38" s="9">
         <v>32782</v>
@@ -5367,12 +5342,12 @@
         <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B39" s="9">
         <v>32843</v>
@@ -5386,7 +5361,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B40" s="9">
         <v>32905</v>
@@ -5395,12 +5370,12 @@
         <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B41" s="9">
         <v>33117</v>
@@ -5409,12 +5384,12 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B42" s="9">
         <v>33117</v>
@@ -5423,12 +5398,12 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B43" s="9">
         <v>33117</v>
@@ -5437,12 +5412,12 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B44" s="9">
         <v>33117</v>
@@ -5451,12 +5426,12 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B45" s="9">
         <v>33147</v>
@@ -5465,26 +5440,26 @@
         <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B46" s="9">
         <v>33178</v>
       </c>
       <c r="C46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B47" s="9">
         <v>33482</v>
@@ -5493,23 +5468,23 @@
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B48" s="9">
         <v>33512</v>
       </c>
       <c r="D48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B49" s="9">
         <v>33695</v>
@@ -5518,12 +5493,12 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B50" s="9">
         <v>33786</v>
@@ -5537,7 +5512,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B51" s="9">
         <v>33786</v>
@@ -5546,12 +5521,12 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B52" s="9">
         <v>33786</v>
@@ -5560,12 +5535,12 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B53" s="9">
         <v>33817</v>
@@ -5574,12 +5549,12 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B54" s="9">
         <v>33817</v>
@@ -5588,12 +5563,12 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B55" s="9">
         <v>34090</v>
@@ -5602,12 +5577,12 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B56" s="9">
         <v>34182</v>
@@ -5616,21 +5591,21 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B57" s="9">
         <v>34121</v>
       </c>
       <c r="C57" t="s">
+        <v>232</v>
+      </c>
+      <c r="D57" t="s">
         <v>233</v>
-      </c>
-      <c r="D57" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5653,7 +5628,7 @@
   <sheetData>
     <row r="4" spans="1:1" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -5663,17 +5638,17 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -5688,7 +5663,7 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -5698,22 +5673,22 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" ht="21">
@@ -5732,7 +5707,7 @@
         <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/05 Avengers.xlsx
+++ b/05 Avengers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49996545-A2D6-4C34-8A22-CE1AE3E24774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C8FCBC-6918-45CC-B6C4-156C60FA7DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="1100" windowWidth="36340" windowHeight="18960" tabRatio="604" activeTab="2" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="990" yWindow="1100" windowWidth="36340" windowHeight="18960" tabRatio="604" activeTab="4" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -898,9 +898,6 @@
     <t>SEC #356</t>
   </si>
   <si>
-    <t>SEC da #45 a #369</t>
-  </si>
-  <si>
     <t>Capitan America e i Vendicatori da #7 a #9</t>
   </si>
   <si>
@@ -1761,6 +1758,9 @@
   </si>
   <si>
     <t>Iron Man e i Vendicatori da #5 a #12</t>
+  </si>
+  <si>
+    <t>SEC da #45 a #382</t>
   </si>
 </sst>
 </file>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
@@ -2488,22 +2488,22 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E18" s="5"/>
     </row>
@@ -2806,7 +2806,7 @@
         <v>333</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="2" customFormat="1" ht="21">
@@ -2993,7 +2993,7 @@
         <v>393</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="2:4" s="11" customFormat="1" ht="21">
@@ -3074,7 +3074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1380A8E3-F86A-4EFD-9942-EA99F1B349C6}">
   <dimension ref="A4:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
+    <sheetView topLeftCell="B14" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -3217,7 +3217,7 @@
         <v>257</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="19" customFormat="1" ht="21">
@@ -3228,7 +3228,7 @@
         <v>260</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3239,7 +3239,7 @@
         <v>264</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21">
@@ -3250,7 +3250,7 @@
         <v>266</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3261,7 +3261,7 @@
         <v>267</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3272,7 +3272,7 @@
         <v>268</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3283,7 +3283,7 @@
         <v>270</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="19" customFormat="1" ht="21">
@@ -3294,7 +3294,7 @@
         <v>271</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3305,7 +3305,7 @@
         <v>272</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="19" customFormat="1" ht="21">
@@ -3316,7 +3316,7 @@
         <v>274</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3327,7 +3327,7 @@
         <v>290</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="2:4" s="19" customFormat="1" ht="21">
@@ -3338,7 +3338,7 @@
         <v>291</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3349,7 +3349,7 @@
         <v>331</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="2:4" s="22" customFormat="1" ht="21">
@@ -3360,7 +3360,7 @@
         <v>336</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3371,7 +3371,7 @@
         <v>350</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3382,7 +3382,7 @@
         <v>351</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3393,7 +3393,7 @@
         <v>354</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="2:4" s="19" customFormat="1" ht="21">
@@ -3415,7 +3415,7 @@
         <v>364</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3426,7 +3426,7 @@
         <v>365</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3437,7 +3437,7 @@
         <v>367</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3448,7 +3448,7 @@
         <v>368</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3459,7 +3459,7 @@
         <v>371</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3470,7 +3470,7 @@
         <v>378</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="2:4" s="19" customFormat="1" ht="21">
@@ -3481,7 +3481,7 @@
         <v>379</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3492,7 +3492,7 @@
         <v>381</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3503,7 +3503,7 @@
         <v>382</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="2:5" s="2" customFormat="1" ht="21">
@@ -3514,7 +3514,7 @@
         <v>383</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="2:5" s="2" customFormat="1" ht="21">
@@ -3525,7 +3525,7 @@
         <v>384</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="21">
@@ -3536,10 +3536,10 @@
         <v>386</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E51" t="s">
         <v>254</v>
-      </c>
-      <c r="E51" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="21">
@@ -3550,7 +3550,7 @@
         <v>392</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="21">
@@ -3561,7 +3561,7 @@
         <v>393</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="21">
@@ -3572,7 +3572,7 @@
         <v>396</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="21">
@@ -3583,7 +3583,7 @@
         <v>397</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="21">
@@ -3594,10 +3594,10 @@
         <v>399</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E56" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="21">
@@ -3608,10 +3608,10 @@
         <v>400</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="21">
@@ -3622,7 +3622,7 @@
         <v>401</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="21">
@@ -3633,7 +3633,7 @@
         <v>408</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3776,7 +3776,7 @@
         <v>142</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>126</v>
@@ -3790,7 +3790,7 @@
         <v>143</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E22" s="11"/>
     </row>
@@ -3802,7 +3802,7 @@
         <v>153</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E23" s="11"/>
     </row>
@@ -3826,7 +3826,7 @@
         <v>169</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E25" s="11"/>
     </row>
@@ -3838,7 +3838,7 @@
         <v>170</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E26" s="11"/>
     </row>
@@ -3850,7 +3850,7 @@
         <v>182</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E27" s="11"/>
     </row>
@@ -3874,7 +3874,7 @@
         <v>200</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E29" s="11"/>
     </row>
@@ -3898,7 +3898,7 @@
         <v>244</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -3910,7 +3910,7 @@
         <v>250</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E32" s="11"/>
     </row>
@@ -3922,7 +3922,7 @@
         <v>252</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E33" s="11"/>
     </row>
@@ -3934,7 +3934,7 @@
         <v>253</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E34" s="13"/>
     </row>
@@ -3946,7 +3946,7 @@
         <v>254</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E35" s="11"/>
     </row>
@@ -3970,7 +3970,7 @@
         <v>256</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E37" s="11"/>
     </row>
@@ -3994,7 +3994,7 @@
         <v>266</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E39" s="11"/>
     </row>
@@ -4006,7 +4006,7 @@
         <v>277</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E40" s="11"/>
     </row>
@@ -4018,10 +4018,10 @@
         <v>279</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="2:5" s="18" customFormat="1" ht="21">
@@ -4032,7 +4032,7 @@
         <v>284</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>58</v>
@@ -4046,7 +4046,7 @@
         <v>292</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>58</v>
@@ -4060,7 +4060,7 @@
         <v>297</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>58</v>
@@ -4074,7 +4074,7 @@
         <v>300</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E45" s="2"/>
     </row>
@@ -4086,7 +4086,7 @@
         <v>306</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E46" s="2"/>
     </row>
@@ -4098,7 +4098,7 @@
         <v>307</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E47" s="2"/>
     </row>
@@ -4110,7 +4110,7 @@
         <v>323</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E49" s="2"/>
     </row>
@@ -4126,8 +4126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F192909-3D0D-484E-BCBD-AF29D454A639}">
   <dimension ref="A4:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4260,10 +4260,10 @@
         <v>126</v>
       </c>
       <c r="C23" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>165</v>
+        <v>319</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>149</v>
@@ -4295,10 +4295,10 @@
   <sheetData>
     <row r="4" spans="1:4" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4311,26 +4311,26 @@
     </row>
     <row r="7" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A7" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A8" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A9" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="17" customFormat="1" ht="16">
@@ -4351,10 +4351,10 @@
     </row>
     <row r="12" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A12" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="17" customFormat="1" ht="16">
@@ -4362,17 +4362,17 @@
         <v>111</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4391,7 +4391,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4402,7 +4402,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4413,7 +4413,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="11" customFormat="1" ht="21">
@@ -4435,7 +4435,7 @@
         <v>45</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4446,7 +4446,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4457,7 +4457,7 @@
         <v>52</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4479,7 +4479,7 @@
         <v>55</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4490,7 +4490,7 @@
         <v>58</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="2:4" s="11" customFormat="1" ht="21">
@@ -4501,7 +4501,7 @@
         <v>59</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4512,7 +4512,7 @@
         <v>63</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="2:4" s="11" customFormat="1" ht="21">
@@ -4534,7 +4534,7 @@
         <v>69</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4545,7 +4545,7 @@
         <v>74</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4556,7 +4556,7 @@
         <v>79</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4567,10 +4567,10 @@
         <v>82</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="11" customFormat="1" ht="21">
@@ -4592,7 +4592,7 @@
         <v>88</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4603,7 +4603,7 @@
         <v>93</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4614,7 +4614,7 @@
         <v>95</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="11" customFormat="1" ht="21">
@@ -4636,7 +4636,7 @@
         <v>99</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4647,7 +4647,7 @@
         <v>100</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4669,18 +4669,18 @@
         <v>102</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="21.5">
       <c r="A48" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4690,17 +4690,17 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4715,7 +4715,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4739,7 +4739,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="2" customFormat="1" ht="21">
@@ -4750,7 +4750,7 @@
         <v>4</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="2" customFormat="1" ht="21">
@@ -4772,7 +4772,7 @@
         <v>7</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4794,7 +4794,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4816,7 +4816,7 @@
         <v>11</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4838,7 +4838,7 @@
         <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -5291,7 +5291,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" s="9">
         <v>31321</v>
@@ -5300,12 +5300,12 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B36" s="9">
         <v>31352</v>
@@ -5314,12 +5314,12 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B37" s="9">
         <v>32721</v>
@@ -5333,7 +5333,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B38" s="9">
         <v>32782</v>
@@ -5342,12 +5342,12 @@
         <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B39" s="9">
         <v>32843</v>
@@ -5361,7 +5361,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B40" s="9">
         <v>32905</v>
@@ -5370,12 +5370,12 @@
         <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B41" s="9">
         <v>33117</v>
@@ -5384,12 +5384,12 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B42" s="9">
         <v>33117</v>
@@ -5398,12 +5398,12 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B43" s="9">
         <v>33117</v>
@@ -5412,12 +5412,12 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B44" s="9">
         <v>33117</v>
@@ -5426,12 +5426,12 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B45" s="9">
         <v>33147</v>
@@ -5440,26 +5440,26 @@
         <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B46" s="9">
         <v>33178</v>
       </c>
       <c r="C46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B47" s="9">
         <v>33482</v>
@@ -5468,23 +5468,23 @@
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B48" s="9">
         <v>33512</v>
       </c>
       <c r="D48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B49" s="9">
         <v>33695</v>
@@ -5493,12 +5493,12 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B50" s="9">
         <v>33786</v>
@@ -5512,7 +5512,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B51" s="9">
         <v>33786</v>
@@ -5521,12 +5521,12 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B52" s="9">
         <v>33786</v>
@@ -5535,12 +5535,12 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B53" s="9">
         <v>33817</v>
@@ -5549,12 +5549,12 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B54" s="9">
         <v>33817</v>
@@ -5563,12 +5563,12 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B55" s="9">
         <v>34090</v>
@@ -5577,12 +5577,12 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B56" s="9">
         <v>34182</v>
@@ -5591,21 +5591,21 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B57" s="9">
         <v>34121</v>
       </c>
       <c r="C57" t="s">
+        <v>231</v>
+      </c>
+      <c r="D57" t="s">
         <v>232</v>
-      </c>
-      <c r="D57" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5628,7 +5628,7 @@
   <sheetData>
     <row r="4" spans="1:1" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -5638,17 +5638,17 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -5663,7 +5663,7 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -5673,22 +5673,22 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" ht="21">
@@ -5707,7 +5707,7 @@
         <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/05 Avengers.xlsx
+++ b/05 Avengers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C8FCBC-6918-45CC-B6C4-156C60FA7DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A7549F-2429-4B1B-B1E9-8817B7A28167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="1100" windowWidth="36340" windowHeight="18960" tabRatio="604" activeTab="4" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="1560" yWindow="1240" windowWidth="36340" windowHeight="18960" tabRatio="604" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="319">
   <si>
     <t>Da</t>
   </si>
@@ -1641,9 +1641,6 @@
   </si>
   <si>
     <t>SEC da #83 a #371</t>
-  </si>
-  <si>
-    <t>Namor Play Press #14</t>
   </si>
   <si>
     <t>Capitan America Speciale Estate: Caccia Alla Pietra di sangue Marvel Extra #4</t>
@@ -2993,7 +2990,7 @@
         <v>393</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="2:4" s="11" customFormat="1" ht="21">
@@ -3415,7 +3412,7 @@
         <v>364</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3646,10 +3643,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507C5B60-2200-44E8-AD94-800DF19AA7DC}">
-  <dimension ref="A4:E49"/>
+  <dimension ref="A4:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3773,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>304</v>
@@ -3784,335 +3781,323 @@
     </row>
     <row r="22" spans="1:5" s="18" customFormat="1" ht="21">
       <c r="B22" s="11">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C22" s="11">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" s="18" customFormat="1" ht="21">
       <c r="B23" s="11">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C23" s="11">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" s="18" customFormat="1" ht="21">
       <c r="B24" s="11">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C24" s="11">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="21">
       <c r="B25" s="11">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C25" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="21">
       <c r="B26" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C26" s="11">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" s="18" customFormat="1" ht="21">
       <c r="B27" s="11">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C27" s="11">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" s="18" customFormat="1" ht="21">
       <c r="B28" s="11">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C28" s="11">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" s="18" customFormat="1" ht="21">
       <c r="B29" s="11">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C29" s="11">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:5" s="18" customFormat="1" ht="21">
-      <c r="B30" s="11">
-        <v>201</v>
-      </c>
-      <c r="C30" s="11">
-        <v>214</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5" ht="21">
-      <c r="B31" s="2">
+    <row r="30" spans="1:5" ht="21">
+      <c r="B30" s="2">
         <v>215</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C30" s="2">
         <v>244</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" s="18" customFormat="1" ht="21">
+      <c r="B31" s="11">
+        <v>245</v>
+      </c>
+      <c r="C31" s="11">
+        <v>250</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" s="18" customFormat="1" ht="21">
       <c r="B32" s="11">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C32" s="11">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="2:5" s="18" customFormat="1" ht="21">
-      <c r="B33" s="11">
-        <v>251</v>
-      </c>
-      <c r="C33" s="11">
-        <v>252</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="2:5" s="21" customFormat="1" ht="21">
-      <c r="B34" s="13">
+    <row r="33" spans="2:5" s="21" customFormat="1" ht="21">
+      <c r="B33" s="13">
         <v>253</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C33" s="13">
         <v>253</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E34" s="13"/>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="2:5" s="18" customFormat="1" ht="21">
+      <c r="B34" s="11">
+        <v>254</v>
+      </c>
+      <c r="C34" s="11">
+        <v>254</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="2:5" s="18" customFormat="1" ht="21">
       <c r="B35" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C35" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="2:5" s="18" customFormat="1" ht="21">
       <c r="B36" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C36" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="E36" s="11"/>
     </row>
     <row r="37" spans="2:5" s="18" customFormat="1" ht="21">
       <c r="B37" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C37" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="2:5" s="18" customFormat="1" ht="21">
       <c r="B38" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C38" s="11">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="2:5" s="18" customFormat="1" ht="21">
       <c r="B39" s="11">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C39" s="11">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="D39" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="2:5" s="21" customFormat="1" ht="21">
+      <c r="B40" s="13">
+        <v>278</v>
+      </c>
+      <c r="C40" s="13">
+        <v>279</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" s="18" customFormat="1" ht="21">
+      <c r="B41" s="11">
+        <v>280</v>
+      </c>
+      <c r="C41" s="11">
+        <v>284</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" s="21" customFormat="1" ht="21">
+      <c r="B42" s="13">
+        <v>285</v>
+      </c>
+      <c r="C42" s="13">
         <v>292</v>
       </c>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="2:5" s="18" customFormat="1" ht="21">
-      <c r="B40" s="11">
-        <v>267</v>
-      </c>
-      <c r="C40" s="11">
-        <v>277</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="2:5" s="21" customFormat="1" ht="21">
-      <c r="B41" s="13">
-        <v>278</v>
-      </c>
-      <c r="C41" s="13">
-        <v>279</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" s="18" customFormat="1" ht="21">
-      <c r="B42" s="11">
-        <v>280</v>
-      </c>
-      <c r="C42" s="11">
-        <v>284</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E42" s="11" t="s">
+      <c r="D42" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:5" s="21" customFormat="1" ht="21">
-      <c r="B43" s="13">
-        <v>285</v>
-      </c>
-      <c r="C43" s="13">
-        <v>292</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="E43" s="13" t="s">
+    <row r="43" spans="2:5" s="18" customFormat="1" ht="21">
+      <c r="B43" s="11">
+        <v>293</v>
+      </c>
+      <c r="C43" s="11">
+        <v>297</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:5" s="18" customFormat="1" ht="21">
-      <c r="B44" s="11">
-        <v>293</v>
-      </c>
-      <c r="C44" s="11">
-        <v>297</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>58</v>
-      </c>
+    <row r="44" spans="2:5" ht="21">
+      <c r="B44" s="2">
+        <v>298</v>
+      </c>
+      <c r="C44" s="2">
+        <v>300</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="2:5" ht="21">
       <c r="B45" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C45" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="2:5" ht="21">
       <c r="B46" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C46" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="2:5" ht="21">
-      <c r="B47" s="2">
-        <v>307</v>
-      </c>
-      <c r="C47" s="2">
-        <v>307</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="49" spans="2:5" ht="21">
-      <c r="B49" s="2">
+    <row r="48" spans="2:5" ht="21">
+      <c r="B48" s="2">
         <v>320</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C48" s="2">
         <v>323</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E49" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E48" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4126,7 +4111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F192909-3D0D-484E-BCBD-AF29D454A639}">
   <dimension ref="A4:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -4263,7 +4248,7 @@
         <v>305</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>149</v>
@@ -4677,10 +4662,10 @@
     </row>
     <row r="48" spans="1:5" ht="21.5">
       <c r="A48" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4690,17 +4675,17 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4715,7 +4700,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4739,7 +4724,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="2" customFormat="1" ht="21">
@@ -4750,7 +4735,7 @@
         <v>4</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="2" customFormat="1" ht="21">
@@ -4772,7 +4757,7 @@
         <v>7</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="65" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4794,7 +4779,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="67" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4816,7 +4801,7 @@
         <v>11</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4838,7 +4823,7 @@
         <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/05 Avengers.xlsx
+++ b/05 Avengers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A7549F-2429-4B1B-B1E9-8817B7A28167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDF15BA-5739-4698-B9ED-C04669D5B555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1240" windowWidth="36340" windowHeight="18960" tabRatio="604" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="5320" yWindow="1160" windowWidth="36340" windowHeight="18950" tabRatio="604" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="314">
   <si>
     <t>Da</t>
   </si>
@@ -220,34 +220,16 @@
     <t>SEC #349</t>
   </si>
   <si>
-    <t>SEC da #10 a #361</t>
-  </si>
-  <si>
     <t>Star Magazine Oro</t>
   </si>
   <si>
     <t>Star Comics</t>
   </si>
   <si>
-    <t>Star Magazine Oro #2</t>
-  </si>
-  <si>
-    <t>Star Magazine #23, Star Magazine #25</t>
-  </si>
-  <si>
     <t>Speciale Vendicatori #1</t>
   </si>
   <si>
-    <t>Speciale Vendicatori #1 Star Comics</t>
-  </si>
-  <si>
     <t>Avengers Annual #10</t>
-  </si>
-  <si>
-    <t>Star Magazine Oro #4</t>
-  </si>
-  <si>
-    <t>Mancante</t>
   </si>
   <si>
     <t>Marvel Omnibus 60</t>
@@ -1758,6 +1740,9 @@
   </si>
   <si>
     <t>SEC da #45 a #382</t>
+  </si>
+  <si>
+    <t>SEC da #10 a #387</t>
   </si>
 </sst>
 </file>
@@ -2350,10 +2335,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
         <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
       </c>
       <c r="C4">
         <v>1991</v>
@@ -2365,10 +2350,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>1989</v>
@@ -2380,7 +2365,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -2395,10 +2380,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>1990</v>
@@ -2410,10 +2395,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>1991</v>
@@ -2425,10 +2410,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>1993</v>
@@ -2440,10 +2425,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>1994</v>
@@ -2455,10 +2440,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <v>1995</v>
@@ -2470,10 +2455,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>1994</v>
@@ -2485,22 +2470,22 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E18" s="5"/>
     </row>
@@ -2511,10 +2496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEA8871-6201-49B9-BDF4-88BE03D31DF7}">
-  <dimension ref="A4:D62"/>
+  <dimension ref="A4:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2591,472 +2576,417 @@
         <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B21" s="2">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="11" customFormat="1" ht="21">
-      <c r="B22" s="11">
-        <v>197</v>
-      </c>
-      <c r="C22" s="11">
-        <v>199</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B22" s="2">
+        <v>231</v>
+      </c>
+      <c r="C22" s="2">
+        <v>272</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B23" s="2">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="C23" s="2">
-        <v>200</v>
+        <v>277</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B24" s="2">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="C24" s="2">
-        <v>202</v>
+        <v>298</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="11" customFormat="1" ht="21">
-      <c r="B25" s="11">
-        <v>203</v>
-      </c>
-      <c r="C25" s="11">
-        <v>203</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B25" s="2">
+        <v>299</v>
+      </c>
+      <c r="C25" s="2">
+        <v>300</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B26" s="2">
-        <v>204</v>
+        <v>301</v>
       </c>
       <c r="C26" s="2">
-        <v>230</v>
+        <v>304</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B27" s="2">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="C27" s="2">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B28" s="2">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="C28" s="2">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B29" s="2">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="C29" s="2">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B30" s="2">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="C30" s="2">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B31" s="2">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="C31" s="2">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="2" customFormat="1" ht="21">
-      <c r="B32" s="2">
-        <v>305</v>
-      </c>
-      <c r="C32" s="2">
-        <v>310</v>
-      </c>
-      <c r="D32" s="2" t="s">
+    <row r="32" spans="1:4" s="11" customFormat="1" ht="21">
+      <c r="B32" s="11">
+        <v>319</v>
+      </c>
+      <c r="C32" s="11">
+        <v>324</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B33" s="2">
-        <v>311</v>
-      </c>
-      <c r="C33" s="2">
-        <v>312</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>64</v>
+    <row r="33" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B33" s="11">
+        <v>325</v>
+      </c>
+      <c r="C33" s="11">
+        <v>325</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B34" s="2">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="C34" s="2">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B35" s="2">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="C35" s="2">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" s="13" customFormat="1" ht="21">
+      <c r="B36" s="13">
+        <v>340</v>
+      </c>
+      <c r="C36" s="13">
+        <v>340</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B37" s="2">
+        <v>341</v>
+      </c>
+      <c r="C37" s="2">
+        <v>344</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B38" s="2">
+        <v>345</v>
+      </c>
+      <c r="C38" s="2">
+        <v>347</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B36" s="2">
-        <v>319</v>
-      </c>
-      <c r="C36" s="2">
-        <v>324</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B37" s="11">
-        <v>319</v>
-      </c>
-      <c r="C37" s="11">
-        <v>324</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B38" s="11">
-        <v>325</v>
-      </c>
-      <c r="C38" s="11">
-        <v>325</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="39" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B39" s="2">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="C39" s="2">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B40" s="2">
-        <v>334</v>
-      </c>
-      <c r="C40" s="2">
-        <v>339</v>
-      </c>
-      <c r="D40" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B40" s="11">
+        <v>352</v>
+      </c>
+      <c r="C40" s="11">
+        <v>354</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B41" s="2">
+        <v>355</v>
+      </c>
+      <c r="C41" s="2">
+        <v>366</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" s="13" customFormat="1" ht="21">
-      <c r="B41" s="13">
-        <v>340</v>
-      </c>
-      <c r="C41" s="13">
-        <v>340</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="42" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B42" s="2">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="C42" s="2">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B43" s="2">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="C43" s="2">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B44" s="11">
+        <v>370</v>
+      </c>
+      <c r="C44" s="11">
+        <v>371</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B44" s="2">
-        <v>348</v>
-      </c>
-      <c r="C44" s="2">
-        <v>351</v>
-      </c>
-      <c r="D44" s="2" t="s">
+    <row r="45" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B45" s="2">
+        <v>372</v>
+      </c>
+      <c r="C45" s="2">
+        <v>375</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B45" s="11">
-        <v>352</v>
-      </c>
-      <c r="C45" s="11">
-        <v>354</v>
-      </c>
-      <c r="D45" s="11" t="s">
+    <row r="46" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B46" s="11">
+        <v>376</v>
+      </c>
+      <c r="C46" s="11">
+        <v>377</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B47" s="11">
+        <v>378</v>
+      </c>
+      <c r="C47" s="11">
+        <v>379</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B46" s="2">
-        <v>355</v>
-      </c>
-      <c r="C46" s="2">
-        <v>366</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B47" s="2">
-        <v>367</v>
-      </c>
-      <c r="C47" s="2">
-        <v>368</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="48" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B48" s="2">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C48" s="2">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="2:4" s="11" customFormat="1" ht="21">
       <c r="B49" s="11">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="C49" s="11">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B50" s="2">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="C50" s="2">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B51" s="11">
-        <v>376</v>
-      </c>
-      <c r="C51" s="11">
-        <v>377</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B51" s="2">
+        <v>391</v>
+      </c>
+      <c r="C51" s="2">
+        <v>393</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="2:4" s="11" customFormat="1" ht="21">
       <c r="B52" s="11">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="C52" s="11">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="D52" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B53" s="11">
+        <v>397</v>
+      </c>
+      <c r="C53" s="11">
+        <v>397</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B54" s="2">
+        <v>398</v>
+      </c>
+      <c r="C54" s="2">
+        <v>400</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B55" s="11">
+        <v>401</v>
+      </c>
+      <c r="C55" s="11">
+        <v>401</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" s="13" customFormat="1" ht="21">
+      <c r="B56" s="13">
+        <v>402</v>
+      </c>
+      <c r="C56" s="13">
+        <v>402</v>
+      </c>
+      <c r="D56" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B53" s="2">
-        <v>380</v>
-      </c>
-      <c r="C53" s="2">
-        <v>382</v>
-      </c>
-      <c r="D53" s="2" t="s">
+    <row r="57" spans="2:4" s="13" customFormat="1" ht="21">
+      <c r="B57" s="13">
+        <v>500</v>
+      </c>
+      <c r="C57" s="13">
+        <v>503</v>
+      </c>
+      <c r="D57" s="13" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B54" s="11">
-        <v>383</v>
-      </c>
-      <c r="C54" s="11">
-        <v>383</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B55" s="2">
-        <v>384</v>
-      </c>
-      <c r="C55" s="2">
-        <v>390</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B56" s="2">
-        <v>391</v>
-      </c>
-      <c r="C56" s="2">
-        <v>393</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B57" s="11">
-        <v>391</v>
-      </c>
-      <c r="C57" s="11">
-        <v>396</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B58" s="11">
-        <v>397</v>
-      </c>
-      <c r="C58" s="11">
-        <v>397</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B59" s="2">
-        <v>398</v>
-      </c>
-      <c r="C59" s="2">
-        <v>400</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B60" s="11">
-        <v>401</v>
-      </c>
-      <c r="C60" s="11">
-        <v>401</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" s="13" customFormat="1" ht="21">
-      <c r="B61" s="13">
-        <v>402</v>
-      </c>
-      <c r="C61" s="13">
-        <v>402</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" s="13" customFormat="1" ht="21">
-      <c r="B62" s="13">
-        <v>500</v>
-      </c>
-      <c r="C62" s="13">
-        <v>503</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3085,42 +3015,42 @@
   <sheetData>
     <row r="4" spans="1:5" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.5">
       <c r="A7" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.5">
       <c r="A8" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.5">
       <c r="A9" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.5">
@@ -3128,7 +3058,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.5">
@@ -3136,38 +3066,38 @@
         <v>3</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16">
       <c r="A12" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.5">
       <c r="A13" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3186,10 +3116,10 @@
         <v>99</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3200,10 +3130,10 @@
         <v>252</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3214,7 +3144,7 @@
         <v>257</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="19" customFormat="1" ht="21">
@@ -3225,7 +3155,7 @@
         <v>260</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3236,7 +3166,7 @@
         <v>264</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21">
@@ -3247,7 +3177,7 @@
         <v>266</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3258,7 +3188,7 @@
         <v>267</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3269,7 +3199,7 @@
         <v>268</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3280,7 +3210,7 @@
         <v>270</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="19" customFormat="1" ht="21">
@@ -3291,7 +3221,7 @@
         <v>271</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3302,7 +3232,7 @@
         <v>272</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="19" customFormat="1" ht="21">
@@ -3313,7 +3243,7 @@
         <v>274</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3324,7 +3254,7 @@
         <v>290</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="2:4" s="19" customFormat="1" ht="21">
@@ -3335,7 +3265,7 @@
         <v>291</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3346,7 +3276,7 @@
         <v>331</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="2:4" s="22" customFormat="1" ht="21">
@@ -3357,7 +3287,7 @@
         <v>336</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3368,7 +3298,7 @@
         <v>350</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3379,7 +3309,7 @@
         <v>351</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3390,7 +3320,7 @@
         <v>354</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="2:4" s="19" customFormat="1" ht="21">
@@ -3401,7 +3331,7 @@
         <v>357</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="10" customFormat="1" ht="21">
@@ -3412,7 +3342,7 @@
         <v>364</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3423,7 +3353,7 @@
         <v>365</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3434,7 +3364,7 @@
         <v>367</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3445,7 +3375,7 @@
         <v>368</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3456,7 +3386,7 @@
         <v>371</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3467,7 +3397,7 @@
         <v>378</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="2:4" s="19" customFormat="1" ht="21">
@@ -3478,7 +3408,7 @@
         <v>379</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3489,7 +3419,7 @@
         <v>381</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3500,7 +3430,7 @@
         <v>382</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="2:5" s="2" customFormat="1" ht="21">
@@ -3511,7 +3441,7 @@
         <v>383</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="2:5" s="2" customFormat="1" ht="21">
@@ -3522,7 +3452,7 @@
         <v>384</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="21">
@@ -3533,10 +3463,10 @@
         <v>386</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E51" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="21">
@@ -3547,7 +3477,7 @@
         <v>392</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="21">
@@ -3558,7 +3488,7 @@
         <v>393</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="21">
@@ -3569,7 +3499,7 @@
         <v>396</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="21">
@@ -3580,7 +3510,7 @@
         <v>397</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="21">
@@ -3591,10 +3521,10 @@
         <v>399</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E56" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="21">
@@ -3605,10 +3535,10 @@
         <v>400</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E57" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="21">
@@ -3619,7 +3549,7 @@
         <v>401</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="21">
@@ -3630,7 +3560,7 @@
         <v>408</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3645,8 +3575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507C5B60-2200-44E8-AD94-800DF19AA7DC}">
   <dimension ref="A4:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A30" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3658,42 +3588,42 @@
   <sheetData>
     <row r="4" spans="1:4" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3714,33 +3644,33 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3759,10 +3689,10 @@
         <v>99</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21">
@@ -3773,10 +3703,10 @@
         <v>147</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="18" customFormat="1" ht="21">
@@ -3787,7 +3717,7 @@
         <v>153</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E22" s="11"/>
     </row>
@@ -3799,7 +3729,7 @@
         <v>157</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E23" s="11"/>
     </row>
@@ -3811,7 +3741,7 @@
         <v>169</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E24" s="11"/>
     </row>
@@ -3823,7 +3753,7 @@
         <v>170</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E25" s="11"/>
     </row>
@@ -3835,7 +3765,7 @@
         <v>182</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E26" s="11"/>
     </row>
@@ -3847,7 +3777,7 @@
         <v>192</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E27" s="11"/>
     </row>
@@ -3859,7 +3789,7 @@
         <v>200</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E28" s="11"/>
     </row>
@@ -3871,7 +3801,7 @@
         <v>214</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E29" s="11"/>
     </row>
@@ -3883,7 +3813,7 @@
         <v>244</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -3895,7 +3825,7 @@
         <v>250</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E31" s="11"/>
     </row>
@@ -3907,7 +3837,7 @@
         <v>252</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E32" s="11"/>
     </row>
@@ -3919,7 +3849,7 @@
         <v>253</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E33" s="13"/>
     </row>
@@ -3931,7 +3861,7 @@
         <v>254</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E34" s="11"/>
     </row>
@@ -3943,7 +3873,7 @@
         <v>255</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E35" s="11"/>
     </row>
@@ -3955,7 +3885,7 @@
         <v>256</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E36" s="11"/>
     </row>
@@ -3967,7 +3897,7 @@
         <v>257</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E37" s="11"/>
     </row>
@@ -3979,7 +3909,7 @@
         <v>266</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E38" s="11"/>
     </row>
@@ -3991,7 +3921,7 @@
         <v>277</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E39" s="11"/>
     </row>
@@ -4003,10 +3933,10 @@
         <v>279</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="2:5" s="18" customFormat="1" ht="21">
@@ -4017,10 +3947,10 @@
         <v>284</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="2:5" s="21" customFormat="1" ht="21">
@@ -4031,10 +3961,10 @@
         <v>292</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="2:5" s="18" customFormat="1" ht="21">
@@ -4045,10 +3975,10 @@
         <v>297</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="21">
@@ -4059,7 +3989,7 @@
         <v>300</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E44" s="2"/>
     </row>
@@ -4071,7 +4001,7 @@
         <v>306</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E45" s="2"/>
     </row>
@@ -4083,7 +4013,7 @@
         <v>307</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E46" s="2"/>
     </row>
@@ -4095,7 +4025,7 @@
         <v>323</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E48" s="2"/>
     </row>
@@ -4123,99 +4053,99 @@
   <sheetData>
     <row r="4" spans="1:5" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="17" customFormat="1" ht="16">
       <c r="A7" s="14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="17" customFormat="1" ht="16">
       <c r="A8" s="14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="17" customFormat="1" ht="16">
       <c r="A9" s="14" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="17" customFormat="1" ht="16">
       <c r="A10" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="17" customFormat="1" ht="16">
       <c r="A11" s="14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" ht="16">
       <c r="A12" s="15" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="17" customFormat="1" ht="16">
       <c r="A13" s="14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4234,10 +4164,10 @@
         <v>125</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4248,10 +4178,10 @@
         <v>305</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4267,8 +4197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A6D52D-A687-4920-A07E-BAE3D4935072}">
   <dimension ref="A4:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView topLeftCell="A14" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4280,84 +4210,84 @@
   <sheetData>
     <row r="4" spans="1:4" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A7" s="14" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A8" s="14" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A9" s="14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A10" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A11" s="14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A12" s="15" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A13" s="14" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4376,7 +4306,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4387,7 +4317,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4398,7 +4328,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="11" customFormat="1" ht="21">
@@ -4409,7 +4339,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4420,7 +4350,7 @@
         <v>45</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4431,7 +4361,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4442,7 +4372,7 @@
         <v>52</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4453,7 +4383,7 @@
         <v>54</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4464,7 +4394,7 @@
         <v>55</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4475,7 +4405,7 @@
         <v>58</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="2:4" s="11" customFormat="1" ht="21">
@@ -4486,7 +4416,7 @@
         <v>59</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4497,7 +4427,7 @@
         <v>63</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="2:4" s="11" customFormat="1" ht="21">
@@ -4508,7 +4438,7 @@
         <v>64</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4519,7 +4449,7 @@
         <v>69</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4530,7 +4460,7 @@
         <v>74</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4541,7 +4471,7 @@
         <v>79</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4552,10 +4482,10 @@
         <v>82</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="11" customFormat="1" ht="21">
@@ -4566,7 +4496,7 @@
         <v>83</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4577,7 +4507,7 @@
         <v>88</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4588,7 +4518,7 @@
         <v>93</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4599,7 +4529,7 @@
         <v>95</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="11" customFormat="1" ht="21">
@@ -4610,7 +4540,7 @@
         <v>97</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4621,7 +4551,7 @@
         <v>99</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4632,7 +4562,7 @@
         <v>100</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4643,7 +4573,7 @@
         <v>101</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4654,38 +4584,38 @@
         <v>102</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="21.5">
       <c r="A48" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="8" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4700,12 +4630,12 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="2" customFormat="1" ht="21">
@@ -4724,7 +4654,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="2" customFormat="1" ht="21">
@@ -4735,7 +4665,7 @@
         <v>4</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="2" customFormat="1" ht="21">
@@ -4746,7 +4676,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="2" customFormat="1" ht="21">
@@ -4757,7 +4687,7 @@
         <v>7</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4768,7 +4698,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4779,7 +4709,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4790,7 +4720,7 @@
         <v>10</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4801,7 +4731,7 @@
         <v>11</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4812,7 +4742,7 @@
         <v>12</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4823,7 +4753,7 @@
         <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -4853,7 +4783,7 @@
   <sheetData>
     <row r="5" spans="1:4">
       <c r="A5" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B5" s="9">
         <v>24016</v>
@@ -4862,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4881,7 +4811,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B7" s="9">
         <v>24929</v>
@@ -4890,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4979,7 +4909,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B14" s="9">
         <v>27760</v>
@@ -4988,12 +4918,12 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B15" s="9">
         <v>27973</v>
@@ -5002,12 +4932,12 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B16" s="9">
         <v>28004</v>
@@ -5016,12 +4946,12 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="10" customFormat="1">
       <c r="A17" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B17" s="16">
         <v>28004</v>
@@ -5030,12 +4960,12 @@
         <v>1</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="10" customFormat="1">
       <c r="A18" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B18" s="16">
         <v>28034</v>
@@ -5044,7 +4974,7 @@
         <v>30</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5077,7 +5007,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B21" s="9">
         <v>28095</v>
@@ -5086,7 +5016,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5105,7 +5035,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B23" s="9">
         <v>28126</v>
@@ -5114,12 +5044,12 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B24" s="9">
         <v>28338</v>
@@ -5128,12 +5058,12 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B25" s="9">
         <v>28338</v>
@@ -5142,10 +5072,10 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5164,7 +5094,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B27" s="9">
         <v>28460</v>
@@ -5173,7 +5103,7 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5206,7 +5136,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B30" s="9">
         <v>28825</v>
@@ -5215,12 +5145,12 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B31" s="9">
         <v>29068</v>
@@ -5229,7 +5159,7 @@
         <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5248,7 +5178,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B33" s="9">
         <v>29190</v>
@@ -5257,12 +5187,12 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B34" s="9">
         <v>29921</v>
@@ -5271,12 +5201,12 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="10" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B35" s="9">
         <v>31321</v>
@@ -5285,12 +5215,12 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="10" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B36" s="9">
         <v>31352</v>
@@ -5299,12 +5229,12 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B37" s="9">
         <v>32721</v>
@@ -5313,12 +5243,12 @@
         <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B38" s="9">
         <v>32782</v>
@@ -5327,12 +5257,12 @@
         <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B39" s="9">
         <v>32843</v>
@@ -5341,12 +5271,12 @@
         <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="10" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B40" s="9">
         <v>32905</v>
@@ -5355,12 +5285,12 @@
         <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B41" s="9">
         <v>33117</v>
@@ -5369,12 +5299,12 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="10" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B42" s="9">
         <v>33117</v>
@@ -5383,12 +5313,12 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="10" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B43" s="9">
         <v>33117</v>
@@ -5397,12 +5327,12 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="10" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B44" s="9">
         <v>33117</v>
@@ -5411,12 +5341,12 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="10" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B45" s="9">
         <v>33147</v>
@@ -5425,26 +5355,26 @@
         <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B46" s="9">
         <v>33178</v>
       </c>
       <c r="C46" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D46" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="10" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B47" s="9">
         <v>33482</v>
@@ -5453,23 +5383,23 @@
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="10" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B48" s="9">
         <v>33512</v>
       </c>
       <c r="D48" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B49" s="9">
         <v>33695</v>
@@ -5478,12 +5408,12 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="10" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B50" s="9">
         <v>33786</v>
@@ -5492,12 +5422,12 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="10" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B51" s="9">
         <v>33786</v>
@@ -5506,12 +5436,12 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="10" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B52" s="9">
         <v>33786</v>
@@ -5520,12 +5450,12 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="10" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B53" s="9">
         <v>33817</v>
@@ -5534,12 +5464,12 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="10" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B54" s="9">
         <v>33817</v>
@@ -5548,12 +5478,12 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B55" s="9">
         <v>34090</v>
@@ -5562,12 +5492,12 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="10" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B56" s="9">
         <v>34182</v>
@@ -5576,21 +5506,21 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="10" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B57" s="9">
         <v>34121</v>
       </c>
       <c r="C57" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D57" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5613,27 +5543,27 @@
   <sheetData>
     <row r="4" spans="1:1" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -5648,32 +5578,32 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" ht="21">
@@ -5692,7 +5622,7 @@
         <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/05 Avengers.xlsx
+++ b/05 Avengers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDF15BA-5739-4698-B9ED-C04669D5B555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2BCF02-79DD-43D1-A1AF-E7BDA08CBA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="1160" windowWidth="36340" windowHeight="18950" tabRatio="604" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="36340" windowHeight="18950" tabRatio="604" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="313">
   <si>
     <t>Da</t>
   </si>
@@ -344,9 +344,6 @@
     <t>Iron Man e i Vendicatori da #3 a #9</t>
   </si>
   <si>
-    <t>Iron Man e i Vendicatori da #10 a #16</t>
-  </si>
-  <si>
     <t>Iron Man e i Vendicatori da #17 a #18</t>
   </si>
   <si>
@@ -1550,18 +1547,6 @@
     <t>Marvel Top #5</t>
   </si>
   <si>
-    <t>Iron Man II #1</t>
-  </si>
-  <si>
-    <t>Iron Man II da #2 a #3</t>
-  </si>
-  <si>
-    <t>Iron Man II #4</t>
-  </si>
-  <si>
-    <t>Iron Man II #5</t>
-  </si>
-  <si>
     <t>Iron Man Annual vol.1 #14</t>
   </si>
   <si>
@@ -1736,13 +1721,25 @@
     <t>Iron Man e i Vendicatori da #10 a #12</t>
   </si>
   <si>
-    <t>Iron Man e i Vendicatori da #5 a #12</t>
-  </si>
-  <si>
     <t>SEC da #45 a #382</t>
   </si>
   <si>
     <t>SEC da #10 a #387</t>
+  </si>
+  <si>
+    <t>Iron Man e i Vendicatori da #5 a #15</t>
+  </si>
+  <si>
+    <t>Iron Man e i Vendicatori da #13 a #16</t>
+  </si>
+  <si>
+    <t>Iron Man e i Vendicatori #16</t>
+  </si>
+  <si>
+    <t>Iron Man e i Vendicatori da #10 a #17</t>
+  </si>
+  <si>
+    <t>Iron Man II da #1 a #5</t>
   </si>
 </sst>
 </file>
@@ -2395,7 +2392,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
@@ -2470,22 +2467,22 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E18" s="5"/>
     </row>
@@ -2496,10 +2493,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEA8871-6201-49B9-BDF4-88BE03D31DF7}">
-  <dimension ref="A4:D57"/>
+  <dimension ref="A4:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A49" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2579,7 +2576,7 @@
         <v>205</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="2" customFormat="1" ht="21">
@@ -2733,7 +2730,7 @@
         <v>333</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="2:4" s="2" customFormat="1" ht="21">
@@ -2920,7 +2917,7 @@
         <v>393</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="2:4" s="11" customFormat="1" ht="21">
@@ -2928,65 +2925,79 @@
         <v>391</v>
       </c>
       <c r="C52" s="11">
+        <v>393</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" s="13" customFormat="1" ht="21">
+      <c r="B53" s="13">
+        <v>394</v>
+      </c>
+      <c r="C53" s="13">
         <v>396</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D53" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B54" s="11">
+        <v>397</v>
+      </c>
+      <c r="C54" s="11">
+        <v>397</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B55" s="2">
+        <v>398</v>
+      </c>
+      <c r="C55" s="2">
+        <v>400</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B53" s="11">
-        <v>397</v>
-      </c>
-      <c r="C53" s="11">
-        <v>397</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B54" s="2">
-        <v>398</v>
-      </c>
-      <c r="C54" s="2">
-        <v>400</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B55" s="11">
-        <v>401</v>
-      </c>
-      <c r="C55" s="11">
-        <v>401</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="56" spans="2:4" s="13" customFormat="1" ht="21">
       <c r="B56" s="13">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C56" s="13">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="2:4" s="13" customFormat="1" ht="21">
       <c r="B57" s="13">
+        <v>402</v>
+      </c>
+      <c r="C57" s="13">
+        <v>402</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" s="13" customFormat="1" ht="21"/>
+    <row r="59" spans="2:4" s="13" customFormat="1" ht="21"/>
+    <row r="60" spans="2:4" s="13" customFormat="1" ht="21"/>
+    <row r="61" spans="2:4" s="13" customFormat="1" ht="21">
+      <c r="B61" s="13">
         <v>500</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C61" s="13">
         <v>503</v>
       </c>
-      <c r="D57" s="13" t="s">
-        <v>81</v>
+      <c r="D61" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2999,10 +3010,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1380A8E3-F86A-4EFD-9942-EA99F1B349C6}">
-  <dimension ref="A4:E59"/>
+  <dimension ref="A4:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="B52" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3015,42 +3026,42 @@
   <sheetData>
     <row r="4" spans="1:5" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.5">
       <c r="A7" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.5">
       <c r="A8" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.5">
       <c r="A9" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.5">
@@ -3058,7 +3069,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.5">
@@ -3066,38 +3077,38 @@
         <v>3</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16">
       <c r="A12" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.5">
       <c r="A13" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3116,10 +3127,10 @@
         <v>99</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3130,10 +3141,10 @@
         <v>252</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3144,7 +3155,7 @@
         <v>257</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="19" customFormat="1" ht="21">
@@ -3155,7 +3166,7 @@
         <v>260</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3166,7 +3177,7 @@
         <v>264</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21">
@@ -3177,7 +3188,7 @@
         <v>266</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3188,7 +3199,7 @@
         <v>267</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3199,7 +3210,7 @@
         <v>268</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3210,7 +3221,7 @@
         <v>270</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="19" customFormat="1" ht="21">
@@ -3221,7 +3232,7 @@
         <v>271</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3232,7 +3243,7 @@
         <v>272</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="19" customFormat="1" ht="21">
@@ -3243,7 +3254,7 @@
         <v>274</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3254,7 +3265,7 @@
         <v>290</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="2:4" s="19" customFormat="1" ht="21">
@@ -3265,7 +3276,7 @@
         <v>291</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3276,7 +3287,7 @@
         <v>331</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="2:4" s="22" customFormat="1" ht="21">
@@ -3287,7 +3298,7 @@
         <v>336</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3298,7 +3309,7 @@
         <v>350</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3309,7 +3320,7 @@
         <v>351</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3320,7 +3331,7 @@
         <v>354</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="2:4" s="19" customFormat="1" ht="21">
@@ -3342,7 +3353,7 @@
         <v>364</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3353,7 +3364,7 @@
         <v>365</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3364,7 +3375,7 @@
         <v>367</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3375,7 +3386,7 @@
         <v>368</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3386,7 +3397,7 @@
         <v>371</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3397,7 +3408,7 @@
         <v>378</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="2:4" s="19" customFormat="1" ht="21">
@@ -3408,7 +3419,7 @@
         <v>379</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3419,7 +3430,7 @@
         <v>381</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3430,7 +3441,7 @@
         <v>382</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="2:5" s="2" customFormat="1" ht="21">
@@ -3441,7 +3452,7 @@
         <v>383</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="2:5" s="2" customFormat="1" ht="21">
@@ -3452,7 +3463,7 @@
         <v>384</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="21">
@@ -3463,10 +3474,10 @@
         <v>386</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E51" t="s">
         <v>247</v>
-      </c>
-      <c r="E51" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="21">
@@ -3477,7 +3488,7 @@
         <v>392</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="21">
@@ -3488,7 +3499,7 @@
         <v>393</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="21">
@@ -3499,7 +3510,7 @@
         <v>396</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="21">
@@ -3510,7 +3521,7 @@
         <v>397</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="21">
@@ -3521,10 +3532,10 @@
         <v>399</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E56" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="21">
@@ -3535,10 +3546,10 @@
         <v>400</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="21">
@@ -3549,7 +3560,7 @@
         <v>401</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="21">
@@ -3560,7 +3571,18 @@
         <v>408</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="21">
+      <c r="B61" s="2">
+        <v>449</v>
+      </c>
+      <c r="C61" s="2">
+        <v>449</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3573,10 +3595,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507C5B60-2200-44E8-AD94-800DF19AA7DC}">
-  <dimension ref="A4:E48"/>
+  <dimension ref="A4:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3588,42 +3610,42 @@
   <sheetData>
     <row r="4" spans="1:4" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3644,33 +3666,33 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3689,10 +3711,10 @@
         <v>99</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21">
@@ -3703,10 +3725,10 @@
         <v>147</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="18" customFormat="1" ht="21">
@@ -3717,7 +3739,7 @@
         <v>153</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E22" s="11"/>
     </row>
@@ -3741,7 +3763,7 @@
         <v>169</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E24" s="11"/>
     </row>
@@ -3753,7 +3775,7 @@
         <v>170</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E25" s="11"/>
     </row>
@@ -3765,7 +3787,7 @@
         <v>182</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E26" s="11"/>
     </row>
@@ -3789,7 +3811,7 @@
         <v>200</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E28" s="11"/>
     </row>
@@ -3813,7 +3835,7 @@
         <v>244</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -3825,7 +3847,7 @@
         <v>250</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E31" s="11"/>
     </row>
@@ -3837,7 +3859,7 @@
         <v>252</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E32" s="11"/>
     </row>
@@ -3849,7 +3871,7 @@
         <v>253</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E33" s="13"/>
     </row>
@@ -3861,7 +3883,7 @@
         <v>254</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E34" s="11"/>
     </row>
@@ -3885,7 +3907,7 @@
         <v>256</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E36" s="11"/>
     </row>
@@ -3909,7 +3931,7 @@
         <v>266</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E38" s="11"/>
     </row>
@@ -3921,7 +3943,7 @@
         <v>277</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E39" s="11"/>
     </row>
@@ -3933,101 +3955,61 @@
         <v>279</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" s="18" customFormat="1" ht="21">
-      <c r="B41" s="11">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" s="21" customFormat="1" ht="21">
+      <c r="B41" s="13">
         <v>280</v>
       </c>
-      <c r="C41" s="11">
-        <v>284</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="E41" s="11" t="s">
+      <c r="C41" s="13">
+        <v>300</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="2:5" s="21" customFormat="1" ht="21">
-      <c r="B42" s="13">
-        <v>285</v>
-      </c>
-      <c r="C42" s="13">
-        <v>292</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" s="18" customFormat="1" ht="21">
-      <c r="B43" s="11">
-        <v>293</v>
-      </c>
-      <c r="C43" s="11">
-        <v>297</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="21">
-      <c r="B44" s="2">
-        <v>298</v>
-      </c>
-      <c r="C44" s="2">
-        <v>300</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E44" s="2"/>
+    <row r="42" spans="2:5" ht="21">
+      <c r="B42" s="2">
+        <v>301</v>
+      </c>
+      <c r="C42" s="2">
+        <v>306</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="2:5" ht="21">
+      <c r="B43" s="2">
+        <v>307</v>
+      </c>
+      <c r="C43" s="2">
+        <v>307</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E43" s="2"/>
     </row>
     <row r="45" spans="2:5" ht="21">
       <c r="B45" s="2">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="C45" s="2">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="2:5" ht="21">
-      <c r="B46" s="2">
-        <v>307</v>
-      </c>
-      <c r="C46" s="2">
-        <v>307</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="48" spans="2:5" ht="21">
-      <c r="B48" s="2">
-        <v>320</v>
-      </c>
-      <c r="C48" s="2">
-        <v>323</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E48" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4039,10 +4021,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F192909-3D0D-484E-BCBD-AF29D454A639}">
-  <dimension ref="A4:E23"/>
+  <dimension ref="A4:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A13" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4053,99 +4035,99 @@
   <sheetData>
     <row r="4" spans="1:5" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="17" customFormat="1" ht="16">
       <c r="A7" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="17" customFormat="1" ht="16">
       <c r="A8" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="17" customFormat="1" ht="16">
       <c r="A9" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="17" customFormat="1" ht="16">
       <c r="A10" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="17" customFormat="1" ht="16">
       <c r="A11" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" ht="16">
       <c r="A12" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="17" customFormat="1" ht="16">
       <c r="A13" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4164,10 +4146,10 @@
         <v>125</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4178,10 +4160,21 @@
         <v>305</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="B25" s="2">
+        <v>496</v>
+      </c>
+      <c r="C25" s="2">
+        <v>496</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -4197,8 +4190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A6D52D-A687-4920-A07E-BAE3D4935072}">
   <dimension ref="A4:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A58" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4210,84 +4203,84 @@
   <sheetData>
     <row r="4" spans="1:4" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A7" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A8" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A9" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A10" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A11" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A12" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A13" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4306,7 +4299,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4317,7 +4310,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4328,7 +4321,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="11" customFormat="1" ht="21">
@@ -4350,7 +4343,7 @@
         <v>45</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4361,7 +4354,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4372,7 +4365,7 @@
         <v>52</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4394,7 +4387,7 @@
         <v>55</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4405,7 +4398,7 @@
         <v>58</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="2:4" s="11" customFormat="1" ht="21">
@@ -4416,7 +4409,7 @@
         <v>59</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4427,7 +4420,7 @@
         <v>63</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="2:4" s="11" customFormat="1" ht="21">
@@ -4449,7 +4442,7 @@
         <v>69</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4460,7 +4453,7 @@
         <v>74</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4471,7 +4464,7 @@
         <v>79</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4482,10 +4475,10 @@
         <v>82</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="11" customFormat="1" ht="21">
@@ -4507,7 +4500,7 @@
         <v>88</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4518,7 +4511,7 @@
         <v>93</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4529,7 +4522,7 @@
         <v>95</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="11" customFormat="1" ht="21">
@@ -4551,7 +4544,7 @@
         <v>99</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4562,7 +4555,7 @@
         <v>100</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4584,38 +4577,38 @@
         <v>102</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="21.5">
       <c r="A48" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="8" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4630,12 +4623,12 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="2" customFormat="1" ht="21">
@@ -4654,7 +4647,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="2" customFormat="1" ht="21">
@@ -4665,7 +4658,7 @@
         <v>4</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="2" customFormat="1" ht="21">
@@ -4687,7 +4680,7 @@
         <v>7</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4709,7 +4702,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4731,7 +4724,7 @@
         <v>11</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="69" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4750,10 +4743,10 @@
         <v>13</v>
       </c>
       <c r="C70" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -4770,8 +4763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416E64D6-9344-4DF6-9CEF-C7FD28BC2114}">
   <dimension ref="A5:E57"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A46" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4783,7 +4776,7 @@
   <sheetData>
     <row r="5" spans="1:4">
       <c r="A5" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="9">
         <v>24016</v>
@@ -4792,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4811,7 +4804,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="9">
         <v>24929</v>
@@ -4820,7 +4813,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4909,7 +4902,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="9">
         <v>27760</v>
@@ -4918,12 +4911,12 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="9">
         <v>27973</v>
@@ -4932,12 +4925,12 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16" s="9">
         <v>28004</v>
@@ -4946,12 +4939,12 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="10" customFormat="1">
       <c r="A17" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" s="16">
         <v>28004</v>
@@ -4960,12 +4953,12 @@
         <v>1</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="10" customFormat="1">
       <c r="A18" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18" s="16">
         <v>28034</v>
@@ -4974,7 +4967,7 @@
         <v>30</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5007,7 +5000,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B21" s="9">
         <v>28095</v>
@@ -5016,7 +5009,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5035,7 +5028,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="9">
         <v>28126</v>
@@ -5044,12 +5037,12 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="9">
         <v>28338</v>
@@ -5058,12 +5051,12 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" s="9">
         <v>28338</v>
@@ -5072,10 +5065,10 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" t="s">
         <v>154</v>
-      </c>
-      <c r="E25" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5094,7 +5087,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" s="9">
         <v>28460</v>
@@ -5103,7 +5096,7 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5136,7 +5129,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B30" s="9">
         <v>28825</v>
@@ -5145,12 +5138,12 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B31" s="9">
         <v>29068</v>
@@ -5159,7 +5152,7 @@
         <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5178,7 +5171,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B33" s="9">
         <v>29190</v>
@@ -5187,7 +5180,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5206,7 +5199,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B35" s="9">
         <v>31321</v>
@@ -5215,12 +5208,12 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B36" s="9">
         <v>31352</v>
@@ -5229,12 +5222,12 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B37" s="9">
         <v>32721</v>
@@ -5248,7 +5241,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B38" s="9">
         <v>32782</v>
@@ -5257,12 +5250,12 @@
         <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B39" s="9">
         <v>32843</v>
@@ -5276,7 +5269,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B40" s="9">
         <v>32905</v>
@@ -5285,12 +5278,12 @@
         <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B41" s="9">
         <v>33117</v>
@@ -5299,12 +5292,12 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B42" s="9">
         <v>33117</v>
@@ -5313,12 +5306,12 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B43" s="9">
         <v>33117</v>
@@ -5327,12 +5320,12 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B44" s="9">
         <v>33117</v>
@@ -5341,12 +5334,12 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B45" s="9">
         <v>33147</v>
@@ -5355,26 +5348,26 @@
         <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B46" s="9">
         <v>33178</v>
       </c>
       <c r="C46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B47" s="9">
         <v>33482</v>
@@ -5383,23 +5376,23 @@
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B48" s="9">
         <v>33512</v>
       </c>
       <c r="D48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B49" s="9">
         <v>33695</v>
@@ -5408,12 +5401,12 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B50" s="9">
         <v>33786</v>
@@ -5427,7 +5420,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B51" s="9">
         <v>33786</v>
@@ -5436,12 +5429,12 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B52" s="9">
         <v>33786</v>
@@ -5450,12 +5443,12 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B53" s="9">
         <v>33817</v>
@@ -5464,12 +5457,12 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B54" s="9">
         <v>33817</v>
@@ -5478,12 +5471,12 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B55" s="9">
         <v>34090</v>
@@ -5492,12 +5485,12 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="10" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B56" s="9">
         <v>34182</v>
@@ -5506,21 +5499,21 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B57" s="9">
         <v>34121</v>
       </c>
       <c r="C57" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" t="s">
         <v>225</v>
-      </c>
-      <c r="D57" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5543,27 +5536,27 @@
   <sheetData>
     <row r="4" spans="1:1" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -5578,32 +5571,32 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" ht="21">
@@ -5622,7 +5615,7 @@
         <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/05 Avengers.xlsx
+++ b/05 Avengers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2BCF02-79DD-43D1-A1AF-E7BDA08CBA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ABA3EF-5A61-49F4-98F7-69C663485859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="36340" windowHeight="18950" tabRatio="604" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="2030" yWindow="700" windowWidth="36370" windowHeight="18960" tabRatio="604" activeTab="2" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="315">
   <si>
     <t>Da</t>
   </si>
@@ -1740,6 +1740,12 @@
   </si>
   <si>
     <t>Iron Man II da #1 a #5</t>
+  </si>
+  <si>
+    <t>SEC #394</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -3012,8 +3018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1380A8E3-F86A-4EFD-9942-EA99F1B349C6}">
   <dimension ref="A4:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="B52" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3158,15 +3164,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="19" customFormat="1" ht="21">
-      <c r="B23" s="11">
+    <row r="23" spans="1:5" s="22" customFormat="1" ht="21">
+      <c r="B23" s="13">
         <v>258</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="13">
         <v>260</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>159</v>
+      <c r="D23" s="13" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3244,6 +3250,9 @@
       </c>
       <c r="D30" s="2" t="s">
         <v>165</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="19" customFormat="1" ht="21">
@@ -3597,7 +3606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507C5B60-2200-44E8-AD94-800DF19AA7DC}">
   <dimension ref="A4:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>

--- a/05 Avengers.xlsx
+++ b/05 Avengers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ABA3EF-5A61-49F4-98F7-69C663485859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EFC6C0-9544-401E-9397-79D592737904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2030" yWindow="700" windowWidth="36370" windowHeight="18960" tabRatio="604" activeTab="2" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="604" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -1607,9 +1607,6 @@
     <t>Iron Man Play Press da #33 a #46</t>
   </si>
   <si>
-    <t>SEC da #83 a #371</t>
-  </si>
-  <si>
     <t>Capitan America Speciale Estate: Caccia Alla Pietra di sangue Marvel Extra #4</t>
   </si>
   <si>
@@ -1746,6 +1743,9 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>SEC da #83 a #396</t>
   </si>
 </sst>
 </file>
@@ -2582,7 +2582,7 @@
         <v>205</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="2" customFormat="1" ht="21">
@@ -2923,7 +2923,7 @@
         <v>393</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="2:4" s="11" customFormat="1" ht="21">
@@ -2934,7 +2934,7 @@
         <v>393</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="2:4" s="13" customFormat="1" ht="21">
@@ -2945,7 +2945,7 @@
         <v>396</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="2:4" s="11" customFormat="1" ht="21">
@@ -3018,7 +3018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1380A8E3-F86A-4EFD-9942-EA99F1B349C6}">
   <dimension ref="A4:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
+    <sheetView topLeftCell="B14" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -3172,7 +3172,7 @@
         <v>260</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3252,7 +3252,7 @@
         <v>165</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="19" customFormat="1" ht="21">
@@ -3362,7 +3362,7 @@
         <v>364</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3591,7 +3591,7 @@
         <v>449</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3606,8 +3606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507C5B60-2200-44E8-AD94-800DF19AA7DC}">
   <dimension ref="A4:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3731,10 +3731,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>119</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="22" spans="1:5" s="18" customFormat="1" ht="21">
       <c r="B22" s="11">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C22" s="11">
         <v>153</v>
@@ -3978,7 +3978,7 @@
         <v>300</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>52</v>
@@ -4016,7 +4016,7 @@
         <v>330</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E45" s="2"/>
     </row>
@@ -4169,7 +4169,7 @@
         <v>305</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>142</v>
@@ -4183,7 +4183,7 @@
         <v>496</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -4594,10 +4594,10 @@
     </row>
     <row r="48" spans="1:5" ht="21.5">
       <c r="A48" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4607,17 +4607,17 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4632,7 +4632,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4656,7 +4656,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="2" customFormat="1" ht="21">
@@ -4667,7 +4667,7 @@
         <v>4</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="2" customFormat="1" ht="21">
@@ -4689,7 +4689,7 @@
         <v>7</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4711,7 +4711,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="67" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4733,7 +4733,7 @@
         <v>11</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="69" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4755,7 +4755,7 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/05 Avengers.xlsx
+++ b/05 Avengers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EFC6C0-9544-401E-9397-79D592737904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C199DC6F-8715-4662-9016-CF946AF7462C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="604" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="540" yWindow="340" windowWidth="38580" windowHeight="19040" tabRatio="604" activeTab="2" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -3018,8 +3018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1380A8E3-F86A-4EFD-9942-EA99F1B349C6}">
   <dimension ref="A4:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="B54" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3606,7 +3606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507C5B60-2200-44E8-AD94-800DF19AA7DC}">
   <dimension ref="A4:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>

--- a/05 Avengers.xlsx
+++ b/05 Avengers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C199DC6F-8715-4662-9016-CF946AF7462C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE5B689-632A-4320-93B3-151EB8206516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="340" windowWidth="38580" windowHeight="19040" tabRatio="604" activeTab="2" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="3150" yWindow="3470" windowWidth="28900" windowHeight="16960" tabRatio="604" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="312">
   <si>
     <t>Da</t>
   </si>
@@ -495,9 +495,6 @@
     <t>SEC da #25 a #84</t>
   </si>
   <si>
-    <t>SEC da #84 a #370</t>
-  </si>
-  <si>
     <t>Inizia Capitan America</t>
   </si>
   <si>
@@ -884,9 +881,6 @@
   </si>
   <si>
     <t>Star Magazine Oro #5</t>
-  </si>
-  <si>
-    <t>Capitan America e i Vendicatori da #10 a #13</t>
   </si>
   <si>
     <t xml:space="preserve">Capitan America e i Vendicatori #14 </t>
@@ -1604,9 +1598,6 @@
     <t>Marvel Geeks #12</t>
   </si>
   <si>
-    <t>Iron Man Play Press da #33 a #46</t>
-  </si>
-  <si>
     <t>Capitan America Speciale Estate: Caccia Alla Pietra di sangue Marvel Extra #4</t>
   </si>
   <si>
@@ -1739,13 +1730,13 @@
     <t>Iron Man II da #1 a #5</t>
   </si>
   <si>
-    <t>SEC #394</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
-    <t>SEC da #83 a #396</t>
+    <t>SEC da #84 a #406</t>
+  </si>
+  <si>
+    <t>SEC da #83 a #409</t>
   </si>
 </sst>
 </file>
@@ -2398,7 +2389,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
@@ -2473,22 +2464,22 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E18" s="5"/>
     </row>
@@ -2582,7 +2573,7 @@
         <v>205</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="2" customFormat="1" ht="21">
@@ -2736,7 +2727,7 @@
         <v>333</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="2:4" s="2" customFormat="1" ht="21">
@@ -2923,7 +2914,7 @@
         <v>393</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="2:4" s="11" customFormat="1" ht="21">
@@ -2934,7 +2925,7 @@
         <v>393</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="2:4" s="13" customFormat="1" ht="21">
@@ -2945,7 +2936,7 @@
         <v>396</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="2:4" s="11" customFormat="1" ht="21">
@@ -3016,10 +3007,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1380A8E3-F86A-4EFD-9942-EA99F1B349C6}">
-  <dimension ref="A4:E61"/>
+  <dimension ref="A4:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B54" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView topLeftCell="B1" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3035,7 +3026,7 @@
         <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3051,7 +3042,7 @@
         <v>83</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.5">
@@ -3059,7 +3050,7 @@
         <v>84</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.5">
@@ -3067,7 +3058,7 @@
         <v>85</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.5">
@@ -3075,7 +3066,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.5">
@@ -3083,7 +3074,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16">
@@ -3091,7 +3082,7 @@
         <v>86</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.5">
@@ -3099,7 +3090,7 @@
         <v>87</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3144,13 +3135,13 @@
         <v>100</v>
       </c>
       <c r="C21" s="2">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3161,216 +3152,216 @@
         <v>257</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="22" customFormat="1" ht="21">
-      <c r="B23" s="13">
-        <v>258</v>
-      </c>
-      <c r="C23" s="13">
-        <v>260</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>312</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21">
+      <c r="B23" s="2">
+        <v>265</v>
+      </c>
+      <c r="C23" s="2">
+        <v>266</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B24" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C24" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="B25" s="2">
+        <v>268</v>
+      </c>
+      <c r="C25" s="2">
+        <v>268</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="21">
-      <c r="B25" s="2">
-        <v>265</v>
-      </c>
-      <c r="C25" s="2">
-        <v>266</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B26" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="B27" s="2">
-        <v>268</v>
-      </c>
-      <c r="C27" s="2">
-        <v>268</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>163</v>
+    <row r="27" spans="1:5" s="19" customFormat="1" ht="21">
+      <c r="B27" s="11">
+        <v>271</v>
+      </c>
+      <c r="C27" s="11">
+        <v>271</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B28" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C28" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="B29" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C29" s="11">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B30" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>313</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="19" customFormat="1" ht="21">
       <c r="B31" s="11">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C31" s="11">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B32" s="2">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="C32" s="2">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" s="19" customFormat="1" ht="21">
-      <c r="B33" s="11">
-        <v>291</v>
-      </c>
-      <c r="C33" s="11">
-        <v>291</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>159</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" s="22" customFormat="1" ht="21">
+      <c r="B33" s="13">
+        <v>332</v>
+      </c>
+      <c r="C33" s="13">
+        <v>336</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B34" s="2">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="C34" s="2">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" s="22" customFormat="1" ht="21">
-      <c r="B35" s="13">
-        <v>332</v>
-      </c>
-      <c r="C35" s="13">
-        <v>336</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B35" s="2">
+        <v>351</v>
+      </c>
+      <c r="C35" s="2">
+        <v>351</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B36" s="2">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="C36" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B37" s="2">
-        <v>351</v>
-      </c>
-      <c r="C37" s="2">
-        <v>351</v>
-      </c>
-      <c r="D37" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="37" spans="2:4" s="19" customFormat="1" ht="21">
+      <c r="B37" s="11">
+        <v>355</v>
+      </c>
+      <c r="C37" s="11">
+        <v>357</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" s="10" customFormat="1" ht="21">
       <c r="B38" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C38" s="2">
-        <v>354</v>
-      </c>
-      <c r="D38" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B39" s="2">
+        <v>365</v>
+      </c>
+      <c r="C39" s="2">
+        <v>365</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="2:4" s="19" customFormat="1" ht="21">
-      <c r="B39" s="11">
-        <v>355</v>
-      </c>
-      <c r="C39" s="11">
-        <v>357</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" s="10" customFormat="1" ht="21">
+    <row r="40" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B40" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C40" s="2">
-        <v>364</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>293</v>
+        <v>367</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B41" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C41" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>207</v>
@@ -3378,220 +3369,198 @@
     </row>
     <row r="42" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B42" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C42" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B43" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C43" s="2">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B44" s="2">
-        <v>369</v>
-      </c>
-      <c r="C44" s="2">
-        <v>371</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" s="19" customFormat="1" ht="21">
+      <c r="B44" s="11">
+        <v>379</v>
+      </c>
+      <c r="C44" s="11">
+        <v>379</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B45" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C45" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" s="19" customFormat="1" ht="21">
-      <c r="B46" s="11">
-        <v>379</v>
-      </c>
-      <c r="C46" s="11">
-        <v>379</v>
-      </c>
-      <c r="D46" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B46" s="2">
+        <v>382</v>
+      </c>
+      <c r="C46" s="2">
+        <v>382</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="47" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B47" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C47" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B48" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C48" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" s="2" customFormat="1" ht="21">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="21">
       <c r="B49" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C49" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" s="2" customFormat="1" ht="21">
+        <v>244</v>
+      </c>
+      <c r="E49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="21">
       <c r="B50" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C50" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="21">
       <c r="B51" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C51" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E51" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="21">
       <c r="B52" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C52" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="21">
       <c r="B53" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C53" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="21">
       <c r="B54" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C54" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
+      </c>
+      <c r="E54" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="21">
       <c r="B55" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C55" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
+      </c>
+      <c r="E55" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="21">
       <c r="B56" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C56" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E56" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="21">
       <c r="B57" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C57" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E57" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="21">
-      <c r="B58" s="2">
-        <v>401</v>
-      </c>
-      <c r="C58" s="2">
-        <v>401</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="21">
       <c r="B59" s="2">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="C59" s="2">
-        <v>408</v>
+        <v>449</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" ht="21">
-      <c r="B61" s="2">
-        <v>449</v>
-      </c>
-      <c r="C61" s="2">
-        <v>449</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3604,10 +3573,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507C5B60-2200-44E8-AD94-800DF19AA7DC}">
-  <dimension ref="A4:E45"/>
+  <dimension ref="A4:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3622,7 +3591,7 @@
         <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3638,7 +3607,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3646,7 +3615,7 @@
         <v>84</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3654,7 +3623,7 @@
         <v>85</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3678,7 +3647,7 @@
         <v>86</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3686,7 +3655,7 @@
         <v>87</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3720,7 +3689,7 @@
         <v>99</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>91</v>
@@ -3731,177 +3700,177 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="18" customFormat="1" ht="21">
       <c r="B22" s="11">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C22" s="11">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" s="18" customFormat="1" ht="21">
       <c r="B23" s="11">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C23" s="11">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>74</v>
+        <v>288</v>
       </c>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" s="18" customFormat="1" ht="21">
       <c r="B24" s="11">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C24" s="11">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="21">
       <c r="B25" s="11">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C25" s="11">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>290</v>
+        <v>74</v>
       </c>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="21">
       <c r="B26" s="11">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="C26" s="11">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" s="18" customFormat="1" ht="21">
       <c r="B27" s="11">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="C27" s="11">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>74</v>
       </c>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="1:5" s="18" customFormat="1" ht="21">
-      <c r="B28" s="11">
-        <v>193</v>
-      </c>
-      <c r="C28" s="11">
-        <v>200</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="E28" s="11"/>
+    <row r="28" spans="1:5" ht="21">
+      <c r="B28" s="2">
+        <v>215</v>
+      </c>
+      <c r="C28" s="2">
+        <v>244</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" s="18" customFormat="1" ht="21">
       <c r="B29" s="11">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="C29" s="11">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>74</v>
+        <v>284</v>
       </c>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:5" ht="21">
-      <c r="B30" s="2">
-        <v>215</v>
-      </c>
-      <c r="C30" s="2">
-        <v>244</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" s="18" customFormat="1" ht="21">
-      <c r="B31" s="11">
-        <v>245</v>
-      </c>
-      <c r="C31" s="11">
-        <v>250</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="E31" s="11"/>
+    <row r="30" spans="1:5" s="18" customFormat="1" ht="21">
+      <c r="B30" s="11">
+        <v>251</v>
+      </c>
+      <c r="C30" s="11">
+        <v>252</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" s="21" customFormat="1" ht="21">
+      <c r="B31" s="13">
+        <v>253</v>
+      </c>
+      <c r="C31" s="13">
+        <v>253</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5" s="18" customFormat="1" ht="21">
       <c r="B32" s="11">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C32" s="11">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="2:5" s="21" customFormat="1" ht="21">
-      <c r="B33" s="13">
-        <v>253</v>
-      </c>
-      <c r="C33" s="13">
-        <v>253</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E33" s="13"/>
+    <row r="33" spans="2:5" s="18" customFormat="1" ht="21">
+      <c r="B33" s="11">
+        <v>255</v>
+      </c>
+      <c r="C33" s="11">
+        <v>255</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="2:5" s="18" customFormat="1" ht="21">
       <c r="B34" s="11">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C34" s="11">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="2:5" s="18" customFormat="1" ht="21">
       <c r="B35" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C35" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>74</v>
@@ -3910,115 +3879,91 @@
     </row>
     <row r="36" spans="2:5" s="18" customFormat="1" ht="21">
       <c r="B36" s="11">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C36" s="11">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E36" s="11"/>
     </row>
     <row r="37" spans="2:5" s="18" customFormat="1" ht="21">
       <c r="B37" s="11">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C37" s="11">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="2:5" s="18" customFormat="1" ht="21">
-      <c r="B38" s="11">
-        <v>258</v>
-      </c>
-      <c r="C38" s="11">
-        <v>266</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="2:5" s="18" customFormat="1" ht="21">
-      <c r="B39" s="11">
-        <v>267</v>
-      </c>
-      <c r="C39" s="11">
+    <row r="38" spans="2:5" s="21" customFormat="1" ht="21">
+      <c r="B38" s="13">
+        <v>278</v>
+      </c>
+      <c r="C38" s="13">
+        <v>279</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="E38" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" s="21" customFormat="1" ht="21">
+      <c r="B39" s="13">
         <v>280</v>
       </c>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="2:5" s="21" customFormat="1" ht="21">
-      <c r="B40" s="13">
-        <v>278</v>
-      </c>
-      <c r="C40" s="13">
-        <v>279</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" s="21" customFormat="1" ht="21">
-      <c r="B41" s="13">
-        <v>280</v>
-      </c>
-      <c r="C41" s="13">
+      <c r="C39" s="13">
         <v>300</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="E41" s="13" t="s">
+      <c r="D39" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="21">
-      <c r="B42" s="2">
+    <row r="40" spans="2:5" ht="21">
+      <c r="B40" s="2">
         <v>301</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C40" s="2">
         <v>306</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E42" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="2:5" ht="21">
+      <c r="B41" s="2">
+        <v>307</v>
+      </c>
+      <c r="C41" s="2">
+        <v>307</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E41" s="2"/>
     </row>
     <row r="43" spans="2:5" ht="21">
       <c r="B43" s="2">
+        <v>320</v>
+      </c>
+      <c r="C43" s="2">
+        <v>330</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C43" s="2">
-        <v>307</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="E43" s="2"/>
-    </row>
-    <row r="45" spans="2:5" ht="21">
-      <c r="B45" s="2">
-        <v>320</v>
-      </c>
-      <c r="C45" s="2">
-        <v>330</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E45" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4044,10 +3989,10 @@
   <sheetData>
     <row r="4" spans="1:5" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4060,83 +4005,83 @@
     </row>
     <row r="7" spans="1:5" s="17" customFormat="1" ht="16">
       <c r="A7" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="17" customFormat="1" ht="16">
       <c r="A8" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="17" customFormat="1" ht="16">
       <c r="A9" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="17" customFormat="1" ht="16">
       <c r="A10" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="17" customFormat="1" ht="16">
       <c r="A11" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" ht="16">
       <c r="A12" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="17" customFormat="1" ht="16">
       <c r="A13" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4155,10 +4100,10 @@
         <v>125</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4169,10 +4114,10 @@
         <v>305</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4183,7 +4128,7 @@
         <v>496</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -4212,10 +4157,10 @@
   <sheetData>
     <row r="4" spans="1:4" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4228,68 +4173,68 @@
     </row>
     <row r="7" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A7" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A8" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A9" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A10" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A11" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A12" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A13" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4308,7 +4253,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4319,7 +4264,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4330,7 +4275,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="11" customFormat="1" ht="21">
@@ -4352,7 +4297,7 @@
         <v>45</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4363,7 +4308,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4374,7 +4319,7 @@
         <v>52</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4396,7 +4341,7 @@
         <v>55</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4407,7 +4352,7 @@
         <v>58</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="2:4" s="11" customFormat="1" ht="21">
@@ -4418,7 +4363,7 @@
         <v>59</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4429,7 +4374,7 @@
         <v>63</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="2:4" s="11" customFormat="1" ht="21">
@@ -4451,7 +4396,7 @@
         <v>69</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4462,7 +4407,7 @@
         <v>74</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4473,7 +4418,7 @@
         <v>79</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4484,10 +4429,10 @@
         <v>82</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="11" customFormat="1" ht="21">
@@ -4509,7 +4454,7 @@
         <v>88</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4520,7 +4465,7 @@
         <v>93</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4531,7 +4476,7 @@
         <v>95</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="11" customFormat="1" ht="21">
@@ -4553,7 +4498,7 @@
         <v>99</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4564,7 +4509,7 @@
         <v>100</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1" ht="21">
@@ -4586,18 +4531,18 @@
         <v>102</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="21.5">
       <c r="A48" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4607,17 +4552,17 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4632,12 +4577,12 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="2" customFormat="1" ht="21">
@@ -4656,7 +4601,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="2" customFormat="1" ht="21">
@@ -4667,7 +4612,7 @@
         <v>4</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="2" customFormat="1" ht="21">
@@ -4689,7 +4634,7 @@
         <v>7</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4711,7 +4656,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4733,7 +4678,7 @@
         <v>11</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="2:4" s="2" customFormat="1" ht="21">
@@ -4755,7 +4700,7 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -4785,7 +4730,7 @@
   <sheetData>
     <row r="5" spans="1:4">
       <c r="A5" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="9">
         <v>24016</v>
@@ -4794,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4813,7 +4758,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="9">
         <v>24929</v>
@@ -4822,7 +4767,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4911,7 +4856,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="9">
         <v>27760</v>
@@ -4920,12 +4865,12 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="9">
         <v>27973</v>
@@ -4934,12 +4879,12 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" s="9">
         <v>28004</v>
@@ -4948,12 +4893,12 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="10" customFormat="1">
       <c r="A17" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="16">
         <v>28004</v>
@@ -4962,12 +4907,12 @@
         <v>1</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="10" customFormat="1">
       <c r="A18" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" s="16">
         <v>28034</v>
@@ -4976,7 +4921,7 @@
         <v>30</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5009,7 +4954,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="9">
         <v>28095</v>
@@ -5018,7 +4963,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5037,7 +4982,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" s="9">
         <v>28126</v>
@@ -5046,12 +4991,12 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" s="9">
         <v>28338</v>
@@ -5060,12 +5005,12 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B25" s="9">
         <v>28338</v>
@@ -5074,10 +5019,10 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" t="s">
         <v>153</v>
-      </c>
-      <c r="E25" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5096,7 +5041,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="9">
         <v>28460</v>
@@ -5105,7 +5050,7 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5138,7 +5083,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B30" s="9">
         <v>28825</v>
@@ -5147,12 +5092,12 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31" s="9">
         <v>29068</v>
@@ -5161,7 +5106,7 @@
         <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5180,7 +5125,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B33" s="9">
         <v>29190</v>
@@ -5189,7 +5134,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5208,7 +5153,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B35" s="9">
         <v>31321</v>
@@ -5217,12 +5162,12 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B36" s="9">
         <v>31352</v>
@@ -5231,12 +5176,12 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B37" s="9">
         <v>32721</v>
@@ -5250,7 +5195,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B38" s="9">
         <v>32782</v>
@@ -5259,12 +5204,12 @@
         <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B39" s="9">
         <v>32843</v>
@@ -5278,7 +5223,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B40" s="9">
         <v>32905</v>
@@ -5287,12 +5232,12 @@
         <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B41" s="9">
         <v>33117</v>
@@ -5301,12 +5246,12 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B42" s="9">
         <v>33117</v>
@@ -5315,12 +5260,12 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B43" s="9">
         <v>33117</v>
@@ -5329,12 +5274,12 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B44" s="9">
         <v>33117</v>
@@ -5343,12 +5288,12 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B45" s="9">
         <v>33147</v>
@@ -5357,26 +5302,26 @@
         <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B46" s="9">
         <v>33178</v>
       </c>
       <c r="C46" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D46" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B47" s="9">
         <v>33482</v>
@@ -5385,23 +5330,23 @@
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B48" s="9">
         <v>33512</v>
       </c>
       <c r="D48" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B49" s="9">
         <v>33695</v>
@@ -5410,12 +5355,12 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B50" s="9">
         <v>33786</v>
@@ -5429,7 +5374,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B51" s="9">
         <v>33786</v>
@@ -5438,12 +5383,12 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B52" s="9">
         <v>33786</v>
@@ -5452,12 +5397,12 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B53" s="9">
         <v>33817</v>
@@ -5466,12 +5411,12 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B54" s="9">
         <v>33817</v>
@@ -5480,12 +5425,12 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B55" s="9">
         <v>34090</v>
@@ -5494,12 +5439,12 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B56" s="9">
         <v>34182</v>
@@ -5508,21 +5453,21 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B57" s="9">
         <v>34121</v>
       </c>
       <c r="C57" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D57" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -5545,7 +5490,7 @@
   <sheetData>
     <row r="4" spans="1:1" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -5555,17 +5500,17 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -5580,32 +5525,32 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" ht="21">
@@ -5624,7 +5569,7 @@
         <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/05 Avengers.xlsx
+++ b/05 Avengers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE5B689-632A-4320-93B3-151EB8206516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55F7E2C-A6DE-4BE9-BBDC-186660877A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="3470" windowWidth="28900" windowHeight="16960" tabRatio="604" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="1820" yWindow="1820" windowWidth="28800" windowHeight="15370" tabRatio="604" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -1736,7 +1736,7 @@
     <t>SEC da #84 a #406</t>
   </si>
   <si>
-    <t>SEC da #83 a #409</t>
+    <t>SEC da #83 a #422</t>
   </si>
 </sst>
 </file>
@@ -3575,8 +3575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507C5B60-2200-44E8-AD94-800DF19AA7DC}">
   <dimension ref="A4:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3700,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>311</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="22" spans="1:5" s="18" customFormat="1" ht="21">
       <c r="B22" s="11">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C22" s="11">
         <v>169</v>

--- a/05 Avengers.xlsx
+++ b/05 Avengers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55F7E2C-A6DE-4BE9-BBDC-186660877A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA184540-897F-4B88-8C53-4B57C0A7D7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1820" windowWidth="28800" windowHeight="15370" tabRatio="604" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="753" yWindow="1680" windowWidth="23547" windowHeight="12000" tabRatio="604" activeTab="4" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="311">
   <si>
     <t>Da</t>
   </si>
@@ -874,25 +874,7 @@
     <t>SEC #356</t>
   </si>
   <si>
-    <t>Capitan America e i Vendicatori da #7 a #9</t>
-  </si>
-  <si>
     <t>Marvel Omnibus #76</t>
-  </si>
-  <si>
-    <t>Star Magazine Oro #5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capitan America e i Vendicatori #14 </t>
-  </si>
-  <si>
-    <t>Capitan America e i Vendicatori #35</t>
-  </si>
-  <si>
-    <t>Capitan America e i Vendicatori da #15 a #16</t>
-  </si>
-  <si>
-    <t>Capitan America e i Vendicatori #17</t>
   </si>
   <si>
     <t>Alpha Flight Vol 1</t>
@@ -1709,12 +1691,6 @@
     <t>Iron Man e i Vendicatori da #10 a #12</t>
   </si>
   <si>
-    <t>SEC da #45 a #382</t>
-  </si>
-  <si>
-    <t>SEC da #10 a #387</t>
-  </si>
-  <si>
     <t>Iron Man e i Vendicatori da #5 a #15</t>
   </si>
   <si>
@@ -1730,13 +1706,34 @@
     <t>Iron Man II da #1 a #5</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>SEC da #84 a #406</t>
-  </si>
-  <si>
-    <t>SEC da #83 a #422</t>
+    <t>Inediti</t>
+  </si>
+  <si>
+    <t>Capitan America &amp; Thor da #2 a #16. Marvel Synchro #5</t>
+  </si>
+  <si>
+    <t>Marvel Syncro #5 Capitan America &amp; Thor da #16 a #19</t>
+  </si>
+  <si>
+    <t>Capitan America &amp; Thor #20</t>
+  </si>
+  <si>
+    <t>Capitan America &amp; Thor 21 fino a #29</t>
+  </si>
+  <si>
+    <t>Capitan America &amp; Thor 30 fino a #34</t>
+  </si>
+  <si>
+    <t>SEC da #83 a #435</t>
+  </si>
+  <si>
+    <t>SEC da #84 a #432</t>
+  </si>
+  <si>
+    <t>SEC da #10 a #425</t>
+  </si>
+  <si>
+    <t>SEC da #45 a #433</t>
   </si>
 </sst>
 </file>
@@ -2300,11 +2297,11 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="35.17578125" customWidth="1"/>
+    <col min="2" max="2" width="21.3515625" customWidth="1"/>
+    <col min="5" max="5" width="12.703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -2389,7 +2386,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
@@ -2464,22 +2461,22 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E18" s="5"/>
     </row>
@@ -2492,18 +2489,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEA8871-6201-49B9-BDF4-88BE03D31DF7}">
   <dimension ref="A4:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="A8" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="47.90625" customWidth="1"/>
-    <col min="4" max="4" width="78.81640625" customWidth="1"/>
-    <col min="5" max="5" width="39.36328125" customWidth="1"/>
+    <col min="1" max="1" width="47.87890625" customWidth="1"/>
+    <col min="4" max="4" width="78.8203125" customWidth="1"/>
+    <col min="5" max="5" width="39.3515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1" ht="21.5">
+    <row r="4" spans="1:1" ht="21.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2557,7 +2554,7 @@
     <row r="17" spans="1:4">
       <c r="A17" s="8"/>
     </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" ht="21">
+    <row r="19" spans="1:4" s="2" customFormat="1" ht="20.7">
       <c r="B19" s="2" t="s">
         <v>0</v>
       </c>
@@ -2565,20 +2562,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" ht="21">
+    <row r="20" spans="1:4" s="2" customFormat="1" ht="20.7">
       <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" ht="21">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="2" customFormat="1" ht="20.7">
       <c r="B21" s="2">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2">
         <v>230</v>
@@ -2587,7 +2584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" ht="21">
+    <row r="22" spans="1:4" s="2" customFormat="1" ht="20.7">
       <c r="B22" s="2">
         <v>231</v>
       </c>
@@ -2598,7 +2595,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" ht="21">
+    <row r="23" spans="1:4" s="2" customFormat="1" ht="20.7">
       <c r="B23" s="2">
         <v>273</v>
       </c>
@@ -2609,7 +2606,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="2" customFormat="1" ht="21">
+    <row r="24" spans="1:4" s="2" customFormat="1" ht="20.7">
       <c r="B24" s="2">
         <v>278</v>
       </c>
@@ -2620,7 +2617,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="2" customFormat="1" ht="21">
+    <row r="25" spans="1:4" s="2" customFormat="1" ht="20.7">
       <c r="B25" s="2">
         <v>299</v>
       </c>
@@ -2631,7 +2628,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="2" customFormat="1" ht="21">
+    <row r="26" spans="1:4" s="2" customFormat="1" ht="20.7">
       <c r="B26" s="2">
         <v>301</v>
       </c>
@@ -2642,7 +2639,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="2" customFormat="1" ht="21">
+    <row r="27" spans="1:4" s="2" customFormat="1" ht="20.7">
       <c r="B27" s="2">
         <v>305</v>
       </c>
@@ -2653,7 +2650,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="2" customFormat="1" ht="21">
+    <row r="28" spans="1:4" s="2" customFormat="1" ht="20.7">
       <c r="B28" s="2">
         <v>311</v>
       </c>
@@ -2664,7 +2661,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="2" customFormat="1" ht="21">
+    <row r="29" spans="1:4" s="2" customFormat="1" ht="20.7">
       <c r="B29" s="2">
         <v>313</v>
       </c>
@@ -2675,7 +2672,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="2" customFormat="1" ht="21">
+    <row r="30" spans="1:4" s="2" customFormat="1" ht="20.7">
       <c r="B30" s="2">
         <v>314</v>
       </c>
@@ -2686,7 +2683,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="2" customFormat="1" ht="21">
+    <row r="31" spans="1:4" s="2" customFormat="1" ht="20.7">
       <c r="B31" s="2">
         <v>319</v>
       </c>
@@ -2697,7 +2694,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="11" customFormat="1" ht="21">
+    <row r="32" spans="1:4" s="11" customFormat="1" ht="20.7">
       <c r="B32" s="11">
         <v>319</v>
       </c>
@@ -2708,7 +2705,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="2:4" s="11" customFormat="1" ht="21">
+    <row r="33" spans="2:4" s="11" customFormat="1" ht="20.7">
       <c r="B33" s="11">
         <v>325</v>
       </c>
@@ -2719,7 +2716,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="34" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B34" s="2">
         <v>326</v>
       </c>
@@ -2727,10 +2724,10 @@
         <v>333</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" s="2" customFormat="1" ht="21">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B35" s="2">
         <v>334</v>
       </c>
@@ -2741,7 +2738,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:4" s="13" customFormat="1" ht="21">
+    <row r="36" spans="2:4" s="13" customFormat="1" ht="20.7">
       <c r="B36" s="13">
         <v>340</v>
       </c>
@@ -2752,7 +2749,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="37" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B37" s="2">
         <v>341</v>
       </c>
@@ -2763,7 +2760,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="38" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B38" s="2">
         <v>345</v>
       </c>
@@ -2774,7 +2771,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="39" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B39" s="2">
         <v>348</v>
       </c>
@@ -2785,7 +2782,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="2:4" s="11" customFormat="1" ht="21">
+    <row r="40" spans="2:4" s="11" customFormat="1" ht="20.7">
       <c r="B40" s="11">
         <v>352</v>
       </c>
@@ -2796,7 +2793,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="41" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B41" s="2">
         <v>355</v>
       </c>
@@ -2807,7 +2804,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="42" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B42" s="2">
         <v>367</v>
       </c>
@@ -2818,7 +2815,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="43" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B43" s="2">
         <v>369</v>
       </c>
@@ -2829,7 +2826,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="2:4" s="11" customFormat="1" ht="21">
+    <row r="44" spans="2:4" s="11" customFormat="1" ht="20.7">
       <c r="B44" s="11">
         <v>370</v>
       </c>
@@ -2840,7 +2837,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="45" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B45" s="2">
         <v>372</v>
       </c>
@@ -2851,7 +2848,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="2:4" s="11" customFormat="1" ht="21">
+    <row r="46" spans="2:4" s="11" customFormat="1" ht="20.7">
       <c r="B46" s="11">
         <v>376</v>
       </c>
@@ -2862,7 +2859,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="2:4" s="11" customFormat="1" ht="21">
+    <row r="47" spans="2:4" s="11" customFormat="1" ht="20.7">
       <c r="B47" s="11">
         <v>378</v>
       </c>
@@ -2873,7 +2870,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="48" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B48" s="2">
         <v>380</v>
       </c>
@@ -2884,7 +2881,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="2:4" s="11" customFormat="1" ht="21">
+    <row r="49" spans="2:4" s="11" customFormat="1" ht="20.7">
       <c r="B49" s="11">
         <v>383</v>
       </c>
@@ -2895,7 +2892,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="50" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B50" s="2">
         <v>384</v>
       </c>
@@ -2906,7 +2903,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="51" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B51" s="2">
         <v>391</v>
       </c>
@@ -2914,10 +2911,10 @@
         <v>393</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" s="11" customFormat="1" ht="21">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" s="11" customFormat="1" ht="20.7">
       <c r="B52" s="11">
         <v>391</v>
       </c>
@@ -2925,10 +2922,10 @@
         <v>393</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" s="13" customFormat="1" ht="21">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" s="13" customFormat="1" ht="20.7">
       <c r="B53" s="13">
         <v>394</v>
       </c>
@@ -2936,10 +2933,10 @@
         <v>396</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" s="11" customFormat="1" ht="21">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" s="11" customFormat="1" ht="20.7">
       <c r="B54" s="11">
         <v>397</v>
       </c>
@@ -2950,7 +2947,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="55" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B55" s="2">
         <v>398</v>
       </c>
@@ -2961,7 +2958,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="2:4" s="13" customFormat="1" ht="21">
+    <row r="56" spans="2:4" s="13" customFormat="1" ht="20.7">
       <c r="B56" s="13">
         <v>401</v>
       </c>
@@ -2972,7 +2969,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="2:4" s="13" customFormat="1" ht="21">
+    <row r="57" spans="2:4" s="13" customFormat="1" ht="20.7">
       <c r="B57" s="13">
         <v>402</v>
       </c>
@@ -2983,10 +2980,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="2:4" s="13" customFormat="1" ht="21"/>
-    <row r="59" spans="2:4" s="13" customFormat="1" ht="21"/>
-    <row r="60" spans="2:4" s="13" customFormat="1" ht="21"/>
-    <row r="61" spans="2:4" s="13" customFormat="1" ht="21">
+    <row r="58" spans="2:4" s="13" customFormat="1" ht="20.7"/>
+    <row r="59" spans="2:4" s="13" customFormat="1" ht="20.7"/>
+    <row r="60" spans="2:4" s="13" customFormat="1" ht="20.7"/>
+    <row r="61" spans="2:4" s="13" customFormat="1" ht="20.7">
       <c r="B61" s="13">
         <v>500</v>
       </c>
@@ -3007,21 +3004,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1380A8E3-F86A-4EFD-9942-EA99F1B349C6}">
-  <dimension ref="A4:E59"/>
+  <dimension ref="A4:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A13" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="28.36328125" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" customWidth="1"/>
-    <col min="4" max="4" width="69.81640625" customWidth="1"/>
-    <col min="5" max="5" width="36.36328125" customWidth="1"/>
+    <col min="1" max="1" width="28.3515625" customWidth="1"/>
+    <col min="3" max="3" width="14.05859375" customWidth="1"/>
+    <col min="4" max="4" width="69.8203125" customWidth="1"/>
+    <col min="5" max="5" width="36.3515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" ht="21.5">
+    <row r="4" spans="1:5" ht="21.35">
       <c r="A4" s="1" t="s">
         <v>81</v>
       </c>
@@ -3037,7 +3034,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.5">
+    <row r="7" spans="1:5" ht="15.7">
       <c r="A7" s="8" t="s">
         <v>83</v>
       </c>
@@ -3045,7 +3042,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.5">
+    <row r="8" spans="1:5" ht="15.7">
       <c r="A8" s="8" t="s">
         <v>84</v>
       </c>
@@ -3053,7 +3050,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.5">
+    <row r="9" spans="1:5" ht="15.7">
       <c r="A9" s="8" t="s">
         <v>85</v>
       </c>
@@ -3061,7 +3058,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.5">
+    <row r="10" spans="1:5" ht="15.7">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
@@ -3069,7 +3066,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.5">
+    <row r="11" spans="1:5" ht="15.7">
       <c r="A11" s="8" t="s">
         <v>3</v>
       </c>
@@ -3077,7 +3074,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16">
+    <row r="12" spans="1:5" ht="15.7">
       <c r="A12" s="8" t="s">
         <v>86</v>
       </c>
@@ -3085,7 +3082,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.5">
+    <row r="13" spans="1:5" ht="15.7">
       <c r="A13" s="8" t="s">
         <v>87</v>
       </c>
@@ -3108,7 +3105,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="21">
+    <row r="19" spans="1:5" s="2" customFormat="1" ht="20.7">
       <c r="B19" s="2" t="s">
         <v>0</v>
       </c>
@@ -3116,7 +3113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="21">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="20.7">
       <c r="B20" s="2">
         <v>59</v>
       </c>
@@ -3130,436 +3127,411 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="21">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="20.7">
       <c r="B21" s="2">
         <v>100</v>
       </c>
       <c r="C21" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" ht="21">
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="20.7">
       <c r="B22" s="2">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="C22" s="2">
+        <v>290</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="19" customFormat="1" ht="20.7">
+      <c r="B23" s="11">
+        <v>291</v>
+      </c>
+      <c r="C23" s="11">
+        <v>291</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1" ht="20.7">
+      <c r="B24" s="2">
+        <v>292</v>
+      </c>
+      <c r="C24" s="2">
+        <v>331</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="22" customFormat="1" ht="20.7">
+      <c r="B25" s="13">
+        <v>332</v>
+      </c>
+      <c r="C25" s="13">
+        <v>336</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="20.7">
+      <c r="B26" s="2">
+        <v>337</v>
+      </c>
+      <c r="C26" s="2">
+        <v>350</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" ht="20.7">
+      <c r="B27" s="2">
+        <v>351</v>
+      </c>
+      <c r="C27" s="2">
+        <v>351</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="20.7">
+      <c r="B28" s="2">
+        <v>352</v>
+      </c>
+      <c r="C28" s="2">
+        <v>354</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="19" customFormat="1" ht="20.7">
+      <c r="B29" s="11">
+        <v>355</v>
+      </c>
+      <c r="C29" s="11">
+        <v>357</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="10" customFormat="1" ht="20.7">
+      <c r="B30" s="2">
+        <v>358</v>
+      </c>
+      <c r="C30" s="2">
+        <v>364</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" ht="20.7">
+      <c r="B31" s="2">
+        <v>365</v>
+      </c>
+      <c r="C31" s="2">
+        <v>365</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1" ht="20.7">
+      <c r="B32" s="2">
+        <v>366</v>
+      </c>
+      <c r="C32" s="2">
+        <v>367</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" s="2" customFormat="1" ht="20.7">
+      <c r="B33" s="2">
+        <v>368</v>
+      </c>
+      <c r="C33" s="2">
+        <v>368</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" s="2" customFormat="1" ht="20.7">
+      <c r="B34" s="2">
+        <v>369</v>
+      </c>
+      <c r="C34" s="2">
+        <v>371</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" s="2" customFormat="1" ht="20.7">
+      <c r="B35" s="2">
+        <v>372</v>
+      </c>
+      <c r="C35" s="2">
+        <v>378</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" s="19" customFormat="1" ht="20.7">
+      <c r="B36" s="11">
+        <v>379</v>
+      </c>
+      <c r="C36" s="11">
+        <v>379</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" s="2" customFormat="1" ht="20.7">
+      <c r="B37" s="2">
+        <v>380</v>
+      </c>
+      <c r="C37" s="2">
+        <v>381</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" s="2" customFormat="1" ht="20.7">
+      <c r="B38" s="2">
+        <v>382</v>
+      </c>
+      <c r="C38" s="2">
+        <v>382</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" s="2" customFormat="1" ht="20.7">
+      <c r="B39" s="2">
+        <v>383</v>
+      </c>
+      <c r="C39" s="2">
+        <v>383</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" s="2" customFormat="1" ht="20.7">
+      <c r="B40" s="2">
+        <v>384</v>
+      </c>
+      <c r="C40" s="2">
+        <v>384</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="20.7">
+      <c r="B41" s="2">
+        <v>385</v>
+      </c>
+      <c r="C41" s="2">
+        <v>386</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="20.7">
+      <c r="B42" s="2">
+        <v>387</v>
+      </c>
+      <c r="C42" s="2">
+        <v>392</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="20.7">
+      <c r="B43" s="2">
+        <v>393</v>
+      </c>
+      <c r="C43" s="2">
+        <v>393</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="20.7">
+      <c r="B44" s="2">
+        <v>394</v>
+      </c>
+      <c r="C44" s="2">
+        <v>396</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="20.7">
+      <c r="B45" s="2">
+        <v>397</v>
+      </c>
+      <c r="C45" s="2">
+        <v>397</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="20.7">
+      <c r="B46" s="2">
+        <v>398</v>
+      </c>
+      <c r="C46" s="2">
+        <v>399</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E46" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="20.7">
+      <c r="B47" s="2">
+        <v>400</v>
+      </c>
+      <c r="C47" s="2">
+        <v>400</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="20.7">
+      <c r="B48" s="2">
+        <v>401</v>
+      </c>
+      <c r="C48" s="2">
+        <v>401</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="21">
-      <c r="B23" s="2">
-        <v>265</v>
-      </c>
-      <c r="C23" s="2">
-        <v>266</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="B24" s="2">
-        <v>267</v>
-      </c>
-      <c r="C24" s="2">
-        <v>267</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="B25" s="2">
-        <v>268</v>
-      </c>
-      <c r="C25" s="2">
-        <v>268</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="B26" s="2">
-        <v>269</v>
-      </c>
-      <c r="C26" s="2">
-        <v>270</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="19" customFormat="1" ht="21">
-      <c r="B27" s="11">
-        <v>271</v>
-      </c>
-      <c r="C27" s="11">
-        <v>271</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="B28" s="2">
-        <v>272</v>
-      </c>
-      <c r="C28" s="2">
-        <v>272</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="19" customFormat="1" ht="21">
-      <c r="B29" s="11">
-        <v>273</v>
-      </c>
-      <c r="C29" s="11">
-        <v>274</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="B30" s="2">
-        <v>275</v>
-      </c>
-      <c r="C30" s="2">
-        <v>290</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="19" customFormat="1" ht="21">
-      <c r="B31" s="11">
-        <v>291</v>
-      </c>
-      <c r="C31" s="11">
-        <v>291</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="B32" s="2">
-        <v>292</v>
-      </c>
-      <c r="C32" s="2">
-        <v>331</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" s="22" customFormat="1" ht="21">
-      <c r="B33" s="13">
-        <v>332</v>
-      </c>
-      <c r="C33" s="13">
-        <v>336</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B34" s="2">
-        <v>337</v>
-      </c>
-      <c r="C34" s="2">
-        <v>350</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B35" s="2">
-        <v>351</v>
-      </c>
-      <c r="C35" s="2">
-        <v>351</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B36" s="2">
-        <v>352</v>
-      </c>
-      <c r="C36" s="2">
-        <v>354</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" s="19" customFormat="1" ht="21">
-      <c r="B37" s="11">
-        <v>355</v>
-      </c>
-      <c r="C37" s="11">
-        <v>357</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" s="10" customFormat="1" ht="21">
-      <c r="B38" s="2">
-        <v>358</v>
-      </c>
-      <c r="C38" s="2">
-        <v>364</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B39" s="2">
-        <v>365</v>
-      </c>
-      <c r="C39" s="2">
-        <v>365</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B40" s="2">
-        <v>366</v>
-      </c>
-      <c r="C40" s="2">
-        <v>367</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B41" s="2">
-        <v>368</v>
-      </c>
-      <c r="C41" s="2">
-        <v>368</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B42" s="2">
-        <v>369</v>
-      </c>
-      <c r="C42" s="2">
-        <v>371</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B43" s="2">
-        <v>372</v>
-      </c>
-      <c r="C43" s="2">
-        <v>378</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" s="19" customFormat="1" ht="21">
-      <c r="B44" s="11">
-        <v>379</v>
-      </c>
-      <c r="C44" s="11">
-        <v>379</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B45" s="2">
-        <v>380</v>
-      </c>
-      <c r="C45" s="2">
-        <v>381</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B46" s="2">
-        <v>382</v>
-      </c>
-      <c r="C46" s="2">
-        <v>382</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B47" s="2">
-        <v>383</v>
-      </c>
-      <c r="C47" s="2">
-        <v>383</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B48" s="2">
-        <v>384</v>
-      </c>
-      <c r="C48" s="2">
-        <v>384</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" ht="21">
+    </row>
+    <row r="49" spans="2:4" ht="20.7">
       <c r="B49" s="2">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="C49" s="2">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E49" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="21">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="20.7">
       <c r="B50" s="2">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="C50" s="2">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" ht="21">
-      <c r="B51" s="2">
-        <v>393</v>
-      </c>
-      <c r="C51" s="2">
-        <v>393</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="21">
-      <c r="B52" s="2">
-        <v>394</v>
-      </c>
-      <c r="C52" s="2">
-        <v>396</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="21">
-      <c r="B53" s="2">
-        <v>397</v>
-      </c>
-      <c r="C53" s="2">
-        <v>397</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="21">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" s="18" customFormat="1" ht="20.7">
+      <c r="B51" s="11">
+        <v>421</v>
+      </c>
+      <c r="C51" s="11">
+        <v>422</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" s="21" customFormat="1" ht="20.7">
+      <c r="B52" s="13">
+        <v>423</v>
+      </c>
+      <c r="C52" s="13">
+        <v>429</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" s="18" customFormat="1" ht="20.7">
+      <c r="B53" s="11">
+        <v>430</v>
+      </c>
+      <c r="C53" s="11">
+        <v>431</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="20.7">
       <c r="B54" s="2">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="C54" s="2">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E54" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="21">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="20.7">
       <c r="B55" s="2">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="C55" s="2">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E55" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="21">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="20.7">
       <c r="B56" s="2">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="C56" s="2">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="21">
-      <c r="B57" s="2">
-        <v>402</v>
-      </c>
-      <c r="C57" s="2">
-        <v>408</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" ht="21">
-      <c r="B59" s="2">
-        <v>449</v>
-      </c>
-      <c r="C59" s="2">
-        <v>449</v>
-      </c>
-      <c r="D59" s="2" t="s">
         <v>306</v>
       </c>
     </row>
@@ -3575,18 +3547,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507C5B60-2200-44E8-AD94-800DF19AA7DC}">
   <dimension ref="A4:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="22.90625" customWidth="1"/>
-    <col min="4" max="4" width="46.36328125" customWidth="1"/>
-    <col min="5" max="5" width="29.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.87890625" customWidth="1"/>
+    <col min="4" max="4" width="46.3515625" customWidth="1"/>
+    <col min="5" max="5" width="29.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="21.5">
+    <row r="4" spans="1:4" ht="21.35">
       <c r="A4" s="1" t="s">
         <v>81</v>
       </c>
@@ -3673,7 +3645,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="21">
+    <row r="19" spans="1:5" s="2" customFormat="1" ht="20.7">
       <c r="B19" s="2" t="s">
         <v>0</v>
       </c>
@@ -3681,7 +3653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="21">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="20.7">
       <c r="B20" s="2">
         <v>39</v>
       </c>
@@ -3695,33 +3667,33 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="21">
+    <row r="21" spans="1:5" ht="20.7">
       <c r="B21" s="2">
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="18" customFormat="1" ht="21">
+    <row r="22" spans="1:5" s="18" customFormat="1" ht="20.7">
       <c r="B22" s="11">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C22" s="11">
         <v>169</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="1:5" s="18" customFormat="1" ht="21">
+    <row r="23" spans="1:5" s="18" customFormat="1" ht="20.7">
       <c r="B23" s="11">
         <v>170</v>
       </c>
@@ -3729,11 +3701,11 @@
         <v>170</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:5" s="18" customFormat="1" ht="21">
+    <row r="24" spans="1:5" s="18" customFormat="1" ht="20.7">
       <c r="B24" s="11">
         <v>171</v>
       </c>
@@ -3741,11 +3713,11 @@
         <v>182</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" s="18" customFormat="1" ht="21">
+    <row r="25" spans="1:5" s="18" customFormat="1" ht="20.7">
       <c r="B25" s="11">
         <v>183</v>
       </c>
@@ -3757,7 +3729,7 @@
       </c>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" s="18" customFormat="1" ht="21">
+    <row r="26" spans="1:5" s="18" customFormat="1" ht="20.7">
       <c r="B26" s="11">
         <v>193</v>
       </c>
@@ -3765,11 +3737,11 @@
         <v>200</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" s="18" customFormat="1" ht="21">
+    <row r="27" spans="1:5" s="18" customFormat="1" ht="20.7">
       <c r="B27" s="11">
         <v>201</v>
       </c>
@@ -3781,7 +3753,7 @@
       </c>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="1:5" ht="21">
+    <row r="28" spans="1:5" ht="20.7">
       <c r="B28" s="2">
         <v>215</v>
       </c>
@@ -3789,11 +3761,11 @@
         <v>244</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" s="18" customFormat="1" ht="21">
+    <row r="29" spans="1:5" s="18" customFormat="1" ht="20.7">
       <c r="B29" s="11">
         <v>245</v>
       </c>
@@ -3801,11 +3773,11 @@
         <v>250</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:5" s="18" customFormat="1" ht="21">
+    <row r="30" spans="1:5" s="18" customFormat="1" ht="20.7">
       <c r="B30" s="11">
         <v>251</v>
       </c>
@@ -3813,11 +3785,11 @@
         <v>252</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:5" s="21" customFormat="1" ht="21">
+    <row r="31" spans="1:5" s="21" customFormat="1" ht="20.7">
       <c r="B31" s="13">
         <v>253</v>
       </c>
@@ -3825,11 +3797,11 @@
         <v>253</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E31" s="13"/>
     </row>
-    <row r="32" spans="1:5" s="18" customFormat="1" ht="21">
+    <row r="32" spans="1:5" s="18" customFormat="1" ht="20.7">
       <c r="B32" s="11">
         <v>254</v>
       </c>
@@ -3837,11 +3809,11 @@
         <v>254</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="2:5" s="18" customFormat="1" ht="21">
+    <row r="33" spans="2:5" s="18" customFormat="1" ht="20.7">
       <c r="B33" s="11">
         <v>255</v>
       </c>
@@ -3853,7 +3825,7 @@
       </c>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="2:5" s="18" customFormat="1" ht="21">
+    <row r="34" spans="2:5" s="18" customFormat="1" ht="20.7">
       <c r="B34" s="11">
         <v>256</v>
       </c>
@@ -3861,11 +3833,11 @@
         <v>256</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="2:5" s="18" customFormat="1" ht="21">
+    <row r="35" spans="2:5" s="18" customFormat="1" ht="20.7">
       <c r="B35" s="11">
         <v>257</v>
       </c>
@@ -3877,7 +3849,7 @@
       </c>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="2:5" s="18" customFormat="1" ht="21">
+    <row r="36" spans="2:5" s="18" customFormat="1" ht="20.7">
       <c r="B36" s="11">
         <v>258</v>
       </c>
@@ -3885,11 +3857,11 @@
         <v>266</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="2:5" s="18" customFormat="1" ht="21">
+    <row r="37" spans="2:5" s="18" customFormat="1" ht="20.7">
       <c r="B37" s="11">
         <v>267</v>
       </c>
@@ -3897,11 +3869,11 @@
         <v>277</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="2:5" s="21" customFormat="1" ht="21">
+    <row r="38" spans="2:5" s="21" customFormat="1" ht="20.7">
       <c r="B38" s="13">
         <v>278</v>
       </c>
@@ -3909,13 +3881,13 @@
         <v>279</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" s="21" customFormat="1" ht="21">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" s="21" customFormat="1" ht="20.7">
       <c r="B39" s="13">
         <v>280</v>
       </c>
@@ -3923,13 +3895,13 @@
         <v>300</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="21">
+    <row r="40" spans="2:5" ht="20.7">
       <c r="B40" s="2">
         <v>301</v>
       </c>
@@ -3937,11 +3909,11 @@
         <v>306</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="2:5" ht="21">
+    <row r="41" spans="2:5" ht="20.7">
       <c r="B41" s="2">
         <v>307</v>
       </c>
@@ -3949,11 +3921,11 @@
         <v>307</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="43" spans="2:5" ht="21">
+    <row r="43" spans="2:5" ht="20.7">
       <c r="B43" s="2">
         <v>320</v>
       </c>
@@ -3961,7 +3933,7 @@
         <v>330</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E43" s="2"/>
     </row>
@@ -3977,17 +3949,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F192909-3D0D-484E-BCBD-AF29D454A639}">
   <dimension ref="A4:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="4" max="4" width="41.1796875" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" customWidth="1"/>
+    <col min="4" max="4" width="41.17578125" customWidth="1"/>
+    <col min="5" max="5" width="21.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" ht="21.5">
+    <row r="4" spans="1:5" ht="21.35">
       <c r="A4" s="1" t="s">
         <v>123</v>
       </c>
@@ -4043,7 +4015,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="17" customFormat="1" ht="16">
+    <row r="12" spans="1:5" s="17" customFormat="1" ht="15.7">
       <c r="A12" s="15" t="s">
         <v>124</v>
       </c>
@@ -4084,7 +4056,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="21">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="20.7">
       <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
@@ -4092,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" ht="21">
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="20.7">
       <c r="B22" s="2">
         <v>83</v>
       </c>
@@ -4106,21 +4078,21 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="21">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="20.7">
       <c r="B23" s="2">
         <v>126</v>
       </c>
       <c r="C23" s="2">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" ht="21">
+    <row r="25" spans="1:5" s="2" customFormat="1" ht="20.7">
       <c r="B25" s="2">
         <v>496</v>
       </c>
@@ -4128,7 +4100,7 @@
         <v>496</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -4148,19 +4120,19 @@
       <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="29.54296875" customWidth="1"/>
-    <col min="4" max="4" width="62.1796875" customWidth="1"/>
-    <col min="5" max="5" width="39.54296875" customWidth="1"/>
+    <col min="1" max="1" width="29.52734375" customWidth="1"/>
+    <col min="4" max="4" width="62.17578125" customWidth="1"/>
+    <col min="5" max="5" width="39.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="21.5">
+    <row r="4" spans="1:4" ht="21.35">
       <c r="A4" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4173,26 +4145,26 @@
     </row>
     <row r="7" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A7" s="14" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A8" s="14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="17" customFormat="1" ht="16">
       <c r="A9" s="14" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="17" customFormat="1" ht="16">
@@ -4211,12 +4183,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="17" customFormat="1" ht="16">
+    <row r="12" spans="1:4" s="17" customFormat="1" ht="15.7">
       <c r="A12" s="15" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="17" customFormat="1" ht="16">
@@ -4224,20 +4196,20 @@
         <v>103</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" s="2" customFormat="1" ht="21">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
@@ -4245,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="19" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B19" s="2">
         <v>1</v>
       </c>
@@ -4253,10 +4225,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" s="2" customFormat="1" ht="21">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B20" s="2">
         <v>1</v>
       </c>
@@ -4264,10 +4236,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" s="2" customFormat="1" ht="21">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B21" s="2">
         <v>16</v>
       </c>
@@ -4275,10 +4247,10 @@
         <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" s="11" customFormat="1" ht="21">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" s="11" customFormat="1" ht="20.7">
       <c r="B22" s="11">
         <v>25</v>
       </c>
@@ -4289,7 +4261,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="23" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B23" s="2">
         <v>42</v>
       </c>
@@ -4297,10 +4269,10 @@
         <v>45</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" s="2" customFormat="1" ht="21">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B24" s="2">
         <v>46</v>
       </c>
@@ -4308,10 +4280,10 @@
         <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" s="2" customFormat="1" ht="21">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B25" s="2">
         <v>50</v>
       </c>
@@ -4319,10 +4291,10 @@
         <v>52</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" s="2" customFormat="1" ht="21">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B26" s="2">
         <v>53</v>
       </c>
@@ -4333,7 +4305,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="27" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B27" s="2">
         <v>55</v>
       </c>
@@ -4341,10 +4313,10 @@
         <v>55</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" s="2" customFormat="1" ht="21">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B28" s="2">
         <v>56</v>
       </c>
@@ -4352,10 +4324,10 @@
         <v>58</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" s="11" customFormat="1" ht="21">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" s="11" customFormat="1" ht="20.7">
       <c r="B29" s="11">
         <v>59</v>
       </c>
@@ -4363,10 +4335,10 @@
         <v>59</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" s="2" customFormat="1" ht="21">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B30" s="2">
         <v>60</v>
       </c>
@@ -4374,10 +4346,10 @@
         <v>63</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" s="11" customFormat="1" ht="21">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" s="11" customFormat="1" ht="20.7">
       <c r="B31" s="11">
         <v>64</v>
       </c>
@@ -4388,7 +4360,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="32" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B32" s="2">
         <v>65</v>
       </c>
@@ -4396,10 +4368,10 @@
         <v>69</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" ht="21">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" ht="20.7">
       <c r="B33" s="2">
         <v>70</v>
       </c>
@@ -4407,10 +4379,10 @@
         <v>74</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="21">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="20.7">
       <c r="B34" s="2">
         <v>75</v>
       </c>
@@ -4418,10 +4390,10 @@
         <v>79</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" ht="21">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="20.7">
       <c r="B35" s="2">
         <v>80</v>
       </c>
@@ -4429,13 +4401,13 @@
         <v>82</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="11" customFormat="1" ht="21">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="11" customFormat="1" ht="20.7">
       <c r="B36" s="11">
         <v>83</v>
       </c>
@@ -4446,7 +4418,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="21">
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="20.7">
       <c r="B37" s="2">
         <v>84</v>
       </c>
@@ -4454,10 +4426,10 @@
         <v>88</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" ht="21">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="2" customFormat="1" ht="20.7">
       <c r="B38" s="2">
         <v>89</v>
       </c>
@@ -4465,10 +4437,10 @@
         <v>93</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="21">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="20.7">
       <c r="B39" s="2">
         <v>94</v>
       </c>
@@ -4476,10 +4448,10 @@
         <v>95</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="11" customFormat="1" ht="21">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="11" customFormat="1" ht="20.7">
       <c r="B40" s="11">
         <v>96</v>
       </c>
@@ -4490,7 +4462,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" ht="21">
+    <row r="41" spans="1:5" s="2" customFormat="1" ht="20.7">
       <c r="B41" s="2">
         <v>98</v>
       </c>
@@ -4498,10 +4470,10 @@
         <v>99</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="21">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="20.7">
       <c r="B42" s="2">
         <v>100</v>
       </c>
@@ -4509,10 +4481,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="2" customFormat="1" ht="21">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="2" customFormat="1" ht="20.7">
       <c r="B43" s="2">
         <v>101</v>
       </c>
@@ -4523,7 +4495,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="2" customFormat="1" ht="21">
+    <row r="44" spans="1:5" s="2" customFormat="1" ht="20.7">
       <c r="B44" s="2">
         <v>102</v>
       </c>
@@ -4531,18 +4503,18 @@
         <v>102</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="21.5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="21.35">
       <c r="A48" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4552,17 +4524,17 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4577,7 +4549,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4585,7 +4557,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="2" customFormat="1" ht="21">
+    <row r="60" spans="1:4" s="2" customFormat="1" ht="20.7">
       <c r="B60" s="2" t="s">
         <v>0</v>
       </c>
@@ -4593,7 +4565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="2" customFormat="1" ht="21">
+    <row r="61" spans="1:4" s="2" customFormat="1" ht="20.7">
       <c r="B61" s="2">
         <v>1</v>
       </c>
@@ -4601,10 +4573,10 @@
         <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="2" customFormat="1" ht="21">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="2" customFormat="1" ht="20.7">
       <c r="B62" s="11">
         <v>4</v>
       </c>
@@ -4612,10 +4584,10 @@
         <v>4</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="2" customFormat="1" ht="21">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="2" customFormat="1" ht="20.7">
       <c r="B63" s="11">
         <v>5</v>
       </c>
@@ -4626,7 +4598,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="2" customFormat="1" ht="21">
+    <row r="64" spans="1:4" s="2" customFormat="1" ht="20.7">
       <c r="B64" s="2">
         <v>6</v>
       </c>
@@ -4634,10 +4606,10 @@
         <v>7</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" s="2" customFormat="1" ht="21">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B65" s="11">
         <v>8</v>
       </c>
@@ -4648,7 +4620,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="66" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B66" s="11">
         <v>9</v>
       </c>
@@ -4656,10 +4628,10 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" s="2" customFormat="1" ht="21">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B67" s="11">
         <v>10</v>
       </c>
@@ -4670,7 +4642,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="68" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B68" s="11">
         <v>11</v>
       </c>
@@ -4678,10 +4650,10 @@
         <v>11</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" s="2" customFormat="1" ht="21">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B69" s="11">
         <v>12</v>
       </c>
@@ -4692,7 +4664,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="70" spans="2:4" s="2" customFormat="1" ht="20.7">
       <c r="B70" s="2">
         <v>13</v>
       </c>
@@ -4700,7 +4672,7 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4721,11 +4693,11 @@
       <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="48.6328125" customWidth="1"/>
-    <col min="4" max="4" width="39.6328125" customWidth="1"/>
-    <col min="5" max="5" width="26.26953125" customWidth="1"/>
+    <col min="1" max="1" width="48.64453125" customWidth="1"/>
+    <col min="4" max="4" width="39.64453125" customWidth="1"/>
+    <col min="5" max="5" width="26.29296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:4">
@@ -5153,7 +5125,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B35" s="9">
         <v>31321</v>
@@ -5162,12 +5134,12 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B36" s="9">
         <v>31352</v>
@@ -5176,12 +5148,12 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="10" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B37" s="9">
         <v>32721</v>
@@ -5195,7 +5167,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B38" s="9">
         <v>32782</v>
@@ -5204,12 +5176,12 @@
         <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="10" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B39" s="9">
         <v>32843</v>
@@ -5223,7 +5195,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B40" s="9">
         <v>32905</v>
@@ -5232,12 +5204,12 @@
         <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B41" s="9">
         <v>33117</v>
@@ -5246,12 +5218,12 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="10" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B42" s="9">
         <v>33117</v>
@@ -5260,12 +5232,12 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B43" s="9">
         <v>33117</v>
@@ -5274,12 +5246,12 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="10" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B44" s="9">
         <v>33117</v>
@@ -5288,12 +5260,12 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B45" s="9">
         <v>33147</v>
@@ -5302,26 +5274,26 @@
         <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B46" s="9">
         <v>33178</v>
       </c>
       <c r="C46" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D46" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="10" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B47" s="9">
         <v>33482</v>
@@ -5330,23 +5302,23 @@
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="10" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B48" s="9">
         <v>33512</v>
       </c>
       <c r="D48" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="10" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B49" s="9">
         <v>33695</v>
@@ -5355,12 +5327,12 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B50" s="9">
         <v>33786</v>
@@ -5374,7 +5346,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="10" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B51" s="9">
         <v>33786</v>
@@ -5383,12 +5355,12 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B52" s="9">
         <v>33786</v>
@@ -5397,12 +5369,12 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="10" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B53" s="9">
         <v>33817</v>
@@ -5411,12 +5383,12 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="10" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B54" s="9">
         <v>33817</v>
@@ -5425,12 +5397,12 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="10" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B55" s="9">
         <v>34090</v>
@@ -5439,12 +5411,12 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="10" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B56" s="9">
         <v>34182</v>
@@ -5453,21 +5425,21 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="10" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B57" s="9">
         <v>34121</v>
       </c>
       <c r="C57" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D57" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -5483,14 +5455,14 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="4" max="4" width="55.453125" customWidth="1"/>
+    <col min="4" max="4" width="55.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1" ht="21.5">
+    <row r="4" spans="1:1" ht="21.35">
       <c r="A4" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -5500,17 +5472,17 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -5525,7 +5497,7 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -5535,25 +5507,25 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" ht="21">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" ht="20.7">
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
@@ -5561,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" ht="21">
+    <row r="21" spans="1:4" s="2" customFormat="1" ht="20.7">
       <c r="B21" s="2">
         <v>1</v>
       </c>
@@ -5569,7 +5541,7 @@
         <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
